--- a/prerequisites/trial prereq/execution_files/majors list.xlsx
+++ b/prerequisites/trial prereq/execution_files/majors list.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jcuoncloud-my.sharepoint.com/personal/elettra_scianetti_johncabot_edu/Documents/Documents/advising/prerequisites/trial prereq/execution_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{C33D7932-E03C-452A-ACDA-0A7400E5C19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B272BBB-3AA6-4179-9EE4-B4987BF50435}"/>
+  <xr:revisionPtr revIDLastSave="811" documentId="13_ncr:1_{C33D7932-E03C-452A-ACDA-0A7400E5C19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DDF833F-137E-4010-98C0-1F5FD8C400A2}"/>
   <bookViews>
-    <workbookView xWindow="14415" yWindow="120" windowWidth="14385" windowHeight="15480" xr2:uid="{39B82AA1-F665-4363-970D-8821589D72FA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{39B82AA1-F665-4363-970D-8821589D72FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Majors" sheetId="3" r:id="rId1"/>
     <sheet name="Mj info compact" sheetId="4" r:id="rId2"/>
     <sheet name="Structure" sheetId="1" r:id="rId3"/>
     <sheet name="Esempi" sheetId="2" r:id="rId4"/>
+    <sheet name="PSYCH" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="173">
   <si>
     <t>Major Name</t>
   </si>
@@ -322,14 +323,276 @@
     <t>SOSC</t>
   </si>
   <si>
-    <t>E</t>
+    <t>IT/BUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKT </t>
+  </si>
+  <si>
+    <t>COR 10</t>
+  </si>
+  <si>
+    <t>COR 11</t>
+  </si>
+  <si>
+    <t>COR 12</t>
+  </si>
+  <si>
+    <t>Four courses at the 300-level or higher to be chosen from: BUS, EC, FIN, LAW, MGT, MKT courses</t>
+  </si>
+  <si>
+    <t>next id</t>
+  </si>
+  <si>
+    <t>Four courses at the 300-level or higher to be chosen from: BUS, EC, FIN, LAW, MGT, MKT courses, MA 209, MA 299 and 400-level MA courses</t>
+  </si>
+  <si>
+    <t>*The two courses must be in the same language, either Latin or Greek</t>
+  </si>
+  <si>
+    <t>In additional it tells you to do two courses in ancient language, problem is that they have to match??</t>
+  </si>
+  <si>
+    <t>ha un altro tipo di checklist prorio</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Six courses at the 200-level or higher to be chosen from HS, LAW, PL or SOSC courses. No more than two courses can be HS ans no more than one can be SOSC. At least four courses must be at the 300-level.</t>
+  </si>
+  <si>
+    <t>Extra info</t>
+  </si>
+  <si>
+    <t>Non ci sono additional requirements</t>
+  </si>
+  <si>
+    <t>Non ci sono additional requirements e nei major electives non c'è nemmeno un corso specifico, sono tutti per concentrations</t>
+  </si>
+  <si>
+    <t>old title row</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>Non ci sono additional requirements, inoltre, I major electives sono piuttosto complicati, perché cìé troppa sovrapposizione</t>
+  </si>
+  <si>
+    <t>A maximum of two PL courses can be at 200 level. At least one course must be a 400-level writing intensive senior seminar, for which students with a CUM GPA of 3.5 or above can choose to write a thesis</t>
+  </si>
+  <si>
+    <t>PL 2xx Philosophy of Social Science</t>
+  </si>
+  <si>
+    <t>Writing intensive senior seminar</t>
+  </si>
+  <si>
+    <t>Five additional courses with the PS prefix to be chosen from those not used to fulfil core requirements</t>
+  </si>
+  <si>
+    <t>Two 300 level courses to be chosen from 2 different areas</t>
+  </si>
+  <si>
+    <t>4 LANGUAGES, Non ci sono additional requirements</t>
+  </si>
+  <si>
+    <t>2 LANGUAGES, Non ci sono additional requirements, inoltre, I major electives sono piuttosto complicati, perché cìé troppa sovrapposizione</t>
+  </si>
+  <si>
+    <t>Four courses at the 300-level or higher to be chosen from: BUS, COM, CS, EC, FIN, MGT, MKT courses</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>Four courses at the 300-level or higher to be chosen divided as follow: &gt;Two upper division MKT courses &gt;Two upper division BUS/COM/CMS/DMA/EC/FIN/MGT/MKT or MA 198</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t>Five courses to be chosen from : courses not taken in the core, any IT or ITS 300-level and any course from the list of approved substitutes</t>
+  </si>
+  <si>
+    <t>Il problema dei missing additional requirements è che scorrono le lettere</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>other courses in Modern Italian History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOSC/ITS </t>
+  </si>
+  <si>
+    <t>SOSC/ITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUS/ITS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMS/ITS </t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <r>
+      <t>Five courses to be chosen from : courses not taken in the core</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(si può dire as core courses?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, any IT or ITS 300-level and any course from the list of approved substitutes</t>
+    </r>
+  </si>
+  <si>
+    <t>any course from the list of approved substitutes</t>
+  </si>
+  <si>
+    <t>ITS</t>
+  </si>
+  <si>
+    <t>Human Communication</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Area / Concentration</t>
+  </si>
+  <si>
+    <t>Cognitive Area</t>
+  </si>
+  <si>
+    <t>PS 312</t>
+  </si>
+  <si>
+    <t>Cognitive Perspectives on Human-Technology Interaction</t>
+  </si>
+  <si>
+    <t>Judgment and Decision Making</t>
+  </si>
+  <si>
+    <t>PS 314</t>
+  </si>
+  <si>
+    <t>Psycholinguistics</t>
+  </si>
+  <si>
+    <t>PS 315</t>
+  </si>
+  <si>
+    <t>Cognitive Area, Psychobiology Area</t>
+  </si>
+  <si>
+    <t>Cognitive Area, Developmental Area</t>
+  </si>
+  <si>
+    <t>PS 321</t>
+  </si>
+  <si>
+    <t>Cognitive Development</t>
+  </si>
+  <si>
+    <t>Developmental Area</t>
+  </si>
+  <si>
+    <t>Adolescent Psychology</t>
+  </si>
+  <si>
+    <t>PS 325</t>
+  </si>
+  <si>
+    <t>Applied Psychology</t>
+  </si>
+  <si>
+    <t>PS 328</t>
+  </si>
+  <si>
+    <t>Educational Psychology</t>
+  </si>
+  <si>
+    <t>Group Dynamics</t>
+  </si>
+  <si>
+    <t>PS 336</t>
+  </si>
+  <si>
+    <t>PS 311</t>
+  </si>
+  <si>
+    <t>Theories of Personality</t>
+  </si>
+  <si>
+    <t>PS 335</t>
+  </si>
+  <si>
+    <t>Sociocultural Area</t>
+  </si>
+  <si>
+    <t>Stereotyping, Prejudice and Discrimination</t>
+  </si>
+  <si>
+    <t>PS 337</t>
+  </si>
+  <si>
+    <t>Industrial/Organizational Psychology</t>
+  </si>
+  <si>
+    <t>PS 340</t>
+  </si>
+  <si>
+    <t>Health Psychology</t>
+  </si>
+  <si>
+    <t>PS 351</t>
+  </si>
+  <si>
+    <t>Clinical Psychology</t>
+  </si>
+  <si>
+    <t>PS 353</t>
+  </si>
+  <si>
+    <t>Abnormal Psychology</t>
+  </si>
+  <si>
+    <t>PS 354</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,8 +621,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +666,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -409,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -436,6 +712,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,6 +795,108 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6C68A0-87E5-1ED8-AD8A-49287FD1A0E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="1990725"/>
+          <a:ext cx="6457950" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Communications major electives description??</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>7 courses – not taken in the core – to be chosen from 200-level or higher CMS, COM, DMA and DJRN and to be chosen in accordance with the following rules:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Three courses at the 200-level or higher must be chosen from one of these clusters: CMS – DMA – DJRN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Four courses must be at 300-level or higher (these may also be courses belonging to the cluster)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>No more than two courses other than those coded CMS/COM/DMA/DJRN may be used as major electives</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -815,16 +1200,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701C36C7-83AA-41D8-8B1C-C0D8358D86FD}">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
@@ -836,7 +1221,7 @@
     <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,10 +1235,14 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F1">
+        <f>'Mj info compact'!F1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -867,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -884,7 +1273,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -901,7 +1290,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -918,7 +1307,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -935,7 +1324,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -952,7 +1341,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -969,7 +1358,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -986,7 +1375,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -1003,7 +1392,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -1020,7 +1409,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -1037,7 +1426,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -1054,7 +1443,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1071,7 +1460,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1088,7 +1477,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -2014,7 +2403,7 @@
         <v>88</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2680,103 +3069,389 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>99</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>56</v>
+      </c>
+      <c r="B111" s="10">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111">
+        <v>110</v>
+      </c>
+      <c r="E111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>57</v>
+      </c>
+      <c r="B112" s="10">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112">
+        <v>201</v>
+      </c>
+      <c r="E112">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>79</v>
+      </c>
+      <c r="B113" s="10">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113">
+        <v>202</v>
+      </c>
+      <c r="E113">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>80</v>
+      </c>
+      <c r="B114" s="10">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114">
+        <v>198</v>
+      </c>
+      <c r="E114">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>81</v>
+      </c>
+      <c r="B115" s="10">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115">
+        <v>208</v>
+      </c>
+      <c r="E115">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>62</v>
+      </c>
+      <c r="B116" s="10">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>87</v>
+      </c>
+      <c r="D116">
+        <v>220</v>
+      </c>
+      <c r="E116">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>62</v>
+      </c>
+      <c r="B117" s="10">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>92</v>
+      </c>
+      <c r="D117">
+        <v>303</v>
+      </c>
+      <c r="E117">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>63</v>
+      </c>
+      <c r="B118" s="10">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118">
+        <v>201</v>
+      </c>
+      <c r="E118">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>63</v>
+      </c>
+      <c r="B119" s="10">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>85</v>
+      </c>
+      <c r="D119">
+        <v>201</v>
+      </c>
+      <c r="E119">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>73</v>
+      </c>
+      <c r="B120" s="10">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120">
+        <v>202</v>
+      </c>
+      <c r="E120">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>73</v>
+      </c>
+      <c r="B121" s="10">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>85</v>
+      </c>
+      <c r="D121">
+        <v>202</v>
+      </c>
+      <c r="E121">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>74</v>
+      </c>
+      <c r="B122" s="10">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122">
+        <v>301</v>
+      </c>
+      <c r="E122">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>75</v>
+      </c>
+      <c r="B123" s="10">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>93</v>
+      </c>
+      <c r="D123">
+        <v>323</v>
+      </c>
+      <c r="E123">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" s="10">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124">
+        <v>301</v>
+      </c>
+      <c r="E124">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>77</v>
+      </c>
+      <c r="B125" s="10">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>94</v>
+      </c>
+      <c r="D125">
+        <v>301</v>
+      </c>
+      <c r="E125">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>78</v>
+      </c>
+      <c r="B126" s="10">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>94</v>
+      </c>
+      <c r="D126">
+        <v>310</v>
+      </c>
+      <c r="E126">
+        <v>310</v>
+      </c>
+    </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B127" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D127">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="E127">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B128" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="D128">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="E128">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B129" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D129">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="E129">
-        <v>1000</v>
+        <v>426</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B130" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D130">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="E130">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="B131" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="D131">
-        <v>200</v>
+        <v>498</v>
       </c>
       <c r="E131">
-        <v>1000</v>
+        <v>498</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B132" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D132">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E132">
         <v>1000</v>
@@ -2784,16 +3459,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B133" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D133">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E133">
         <v>1000</v>
@@ -2801,16 +3476,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B134" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D134">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E134">
         <v>1000</v>
@@ -2818,30 +3493,2476 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>59</v>
+      </c>
+      <c r="B135" s="10">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135">
+        <v>300</v>
+      </c>
+      <c r="E135">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>59</v>
+      </c>
+      <c r="B136" s="10">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136">
+        <v>300</v>
+      </c>
+      <c r="E136">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>59</v>
+      </c>
+      <c r="B137" s="10">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137">
+        <v>300</v>
+      </c>
+      <c r="E137">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>31</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>101</v>
+      </c>
+      <c r="D138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>56</v>
+      </c>
+      <c r="B139" s="10">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139">
+        <v>110</v>
+      </c>
+      <c r="E139">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>57</v>
+      </c>
+      <c r="B140" s="10">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140">
+        <v>198</v>
+      </c>
+      <c r="E140">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>79</v>
+      </c>
+      <c r="B141" s="10">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141">
+        <v>208</v>
+      </c>
+      <c r="E141">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>62</v>
+      </c>
+      <c r="B142" s="10">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>87</v>
+      </c>
+      <c r="D142">
+        <v>220</v>
+      </c>
+      <c r="E142">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143" s="10">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143">
+        <v>201</v>
+      </c>
+      <c r="E143">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>73</v>
+      </c>
+      <c r="B144" s="10">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144">
+        <v>202</v>
+      </c>
+      <c r="E144">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>74</v>
+      </c>
+      <c r="B145" s="10">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145">
+        <v>201</v>
+      </c>
+      <c r="E145">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>74</v>
+      </c>
+      <c r="B146" s="10">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>85</v>
+      </c>
+      <c r="D146">
+        <v>201</v>
+      </c>
+      <c r="E146">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>75</v>
+      </c>
+      <c r="B147" s="10">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147">
+        <v>202</v>
+      </c>
+      <c r="E147">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>75</v>
+      </c>
+      <c r="B148" s="10">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>85</v>
+      </c>
+      <c r="D148">
+        <v>202</v>
+      </c>
+      <c r="E148">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>76</v>
+      </c>
+      <c r="B149" s="10">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>21</v>
+      </c>
+      <c r="D149">
+        <v>301</v>
+      </c>
+      <c r="E149">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>77</v>
+      </c>
+      <c r="B150" s="10">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>93</v>
+      </c>
+      <c r="D150">
+        <v>219</v>
+      </c>
+      <c r="E150">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>78</v>
+      </c>
+      <c r="B151" s="10">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>95</v>
+      </c>
+      <c r="D151">
+        <v>301</v>
+      </c>
+      <c r="E151">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>89</v>
+      </c>
+      <c r="B152" s="10">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>94</v>
+      </c>
+      <c r="D152">
+        <v>301</v>
+      </c>
+      <c r="E152">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>96</v>
+      </c>
+      <c r="B153" s="10">
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
+        <v>94</v>
+      </c>
+      <c r="D153">
+        <v>310</v>
+      </c>
+      <c r="E153">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>97</v>
+      </c>
+      <c r="B154" s="10">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>94</v>
+      </c>
+      <c r="D154">
+        <v>330</v>
+      </c>
+      <c r="E154">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>98</v>
+      </c>
+      <c r="B155" s="10">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>23</v>
+      </c>
+      <c r="D155">
+        <v>498</v>
+      </c>
+      <c r="E155">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>59</v>
+      </c>
+      <c r="B156" s="10">
+        <v>4</v>
+      </c>
+      <c r="C156" t="s">
+        <v>87</v>
+      </c>
+      <c r="D156">
+        <v>300</v>
+      </c>
+      <c r="E156">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>59</v>
+      </c>
+      <c r="B157" s="10">
+        <v>4</v>
+      </c>
+      <c r="C157" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157">
+        <v>300</v>
+      </c>
+      <c r="E157">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>59</v>
+      </c>
+      <c r="B158" s="10">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s">
+        <v>21</v>
+      </c>
+      <c r="D158">
+        <v>300</v>
+      </c>
+      <c r="E158">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>59</v>
+      </c>
+      <c r="B159" s="10">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s">
+        <v>22</v>
+      </c>
+      <c r="D159">
+        <v>300</v>
+      </c>
+      <c r="E159">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>59</v>
+      </c>
+      <c r="B160" s="10">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>23</v>
+      </c>
+      <c r="D160">
+        <v>300</v>
+      </c>
+      <c r="E160">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>59</v>
+      </c>
+      <c r="B161" s="10">
+        <v>4</v>
+      </c>
+      <c r="C161" t="s">
+        <v>24</v>
+      </c>
+      <c r="D161">
+        <v>300</v>
+      </c>
+      <c r="E161">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>59</v>
+      </c>
+      <c r="B162" s="10">
+        <v>4</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162">
+        <v>209</v>
+      </c>
+      <c r="E162">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>59</v>
+      </c>
+      <c r="B163" s="10">
+        <v>4</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163">
+        <v>299</v>
+      </c>
+      <c r="E163">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>59</v>
+      </c>
+      <c r="B164" s="10">
+        <v>4</v>
+      </c>
+      <c r="C164" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164">
+        <v>400</v>
+      </c>
+      <c r="E164">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>54</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C165" t="s">
+        <v>106</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>62</v>
+      </c>
+      <c r="B166" s="10">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>111</v>
+      </c>
+      <c r="D166">
+        <v>210</v>
+      </c>
+      <c r="E166">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>63</v>
+      </c>
+      <c r="B167" s="10">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>111</v>
+      </c>
+      <c r="D167">
+        <v>211</v>
+      </c>
+      <c r="E167">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>73</v>
+      </c>
+      <c r="B168" s="10">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168">
+        <v>101</v>
+      </c>
+      <c r="E168">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>74</v>
+      </c>
+      <c r="B169" s="10">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169">
+        <v>201</v>
+      </c>
+      <c r="E169">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>75</v>
+      </c>
+      <c r="B170" s="10">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170">
+        <v>209</v>
+      </c>
+      <c r="E170">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>76</v>
+      </c>
+      <c r="B171" s="10">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171">
+        <v>210</v>
+      </c>
+      <c r="E171">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>77</v>
+      </c>
+      <c r="B172" s="10">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172">
+        <v>223</v>
+      </c>
+      <c r="E172">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>78</v>
+      </c>
+      <c r="B173" s="10">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>25</v>
+      </c>
+      <c r="D173">
+        <v>250</v>
+      </c>
+      <c r="E173">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>89</v>
+      </c>
+      <c r="B174" s="10">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>25</v>
+      </c>
+      <c r="D174">
+        <v>340</v>
+      </c>
+      <c r="E174">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>96</v>
+      </c>
+      <c r="B175" s="10">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175">
+        <v>460</v>
+      </c>
+      <c r="E175">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>97</v>
+      </c>
+      <c r="B176" s="10">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176">
+        <v>480</v>
+      </c>
+      <c r="E176">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>53</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C177" t="s">
+        <v>113</v>
+      </c>
+      <c r="D177">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>62</v>
+      </c>
+      <c r="B178" s="10">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178">
+        <v>209</v>
+      </c>
+      <c r="E178">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>63</v>
+      </c>
+      <c r="B179" s="10">
+        <v>1</v>
+      </c>
+      <c r="C179" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179">
+        <v>210</v>
+      </c>
+      <c r="E179">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>73</v>
+      </c>
+      <c r="B180" s="10">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>25</v>
+      </c>
+      <c r="D180">
+        <v>223</v>
+      </c>
+      <c r="E180">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>74</v>
+      </c>
+      <c r="B181" s="10">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>74</v>
+      </c>
+      <c r="B182" s="10">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>74</v>
+      </c>
+      <c r="B183" s="10">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E183" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F183" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>74</v>
+      </c>
+      <c r="B184" s="10">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>75</v>
+      </c>
+      <c r="B185" s="10">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185">
+        <v>200</v>
+      </c>
+      <c r="E185">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>59</v>
+      </c>
+      <c r="B186" s="10">
+        <v>1</v>
+      </c>
+      <c r="F186" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>60</v>
       </c>
-      <c r="B135" s="10">
+      <c r="B187" s="10">
         <v>3</v>
       </c>
-      <c r="C135" t="s">
+      <c r="F187" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>60</v>
+      </c>
+      <c r="B188" s="10">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188">
+        <v>300</v>
+      </c>
+      <c r="E188">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>61</v>
+      </c>
+      <c r="B189" s="10">
+        <v>2</v>
+      </c>
+      <c r="F189" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>61</v>
+      </c>
+      <c r="B190" s="10">
+        <v>2</v>
+      </c>
+      <c r="C190" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190">
+        <v>200</v>
+      </c>
+      <c r="E190">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>55</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C191" t="s">
+        <v>116</v>
+      </c>
+      <c r="D191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>62</v>
+      </c>
+      <c r="B192" s="10">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
         <v>26</v>
       </c>
-      <c r="D135">
+      <c r="D192">
+        <v>101</v>
+      </c>
+      <c r="E192">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>63</v>
+      </c>
+      <c r="B193" s="10">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>26</v>
+      </c>
+      <c r="D193">
+        <v>208</v>
+      </c>
+      <c r="E193">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>73</v>
+      </c>
+      <c r="B194" s="10">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>26</v>
+      </c>
+      <c r="D194">
+        <v>210</v>
+      </c>
+      <c r="E194">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>74</v>
+      </c>
+      <c r="B195" s="10">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195">
+        <v>307</v>
+      </c>
+      <c r="E195">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>75</v>
+      </c>
+      <c r="B196" s="10">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>26</v>
+      </c>
+      <c r="D196">
+        <v>320</v>
+      </c>
+      <c r="E196">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>76</v>
+      </c>
+      <c r="B197" s="10">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>26</v>
+      </c>
+      <c r="D197">
+        <v>334</v>
+      </c>
+      <c r="E197">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>77</v>
+      </c>
+      <c r="B198" s="10">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>26</v>
+      </c>
+      <c r="D198">
+        <v>370</v>
+      </c>
+      <c r="E198">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>78</v>
+      </c>
+      <c r="B199" s="10">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>26</v>
+      </c>
+      <c r="D199">
+        <v>480</v>
+      </c>
+      <c r="E199">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>89</v>
+      </c>
+      <c r="B200" s="10">
+        <v>2</v>
+      </c>
+      <c r="C200" t="s">
+        <v>26</v>
+      </c>
+      <c r="D200" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E200" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F200" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>96</v>
+      </c>
+      <c r="B201" s="10">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>26</v>
+      </c>
+      <c r="D201">
+        <v>354</v>
+      </c>
+      <c r="E201">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>96</v>
+      </c>
+      <c r="B202" s="10">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>26</v>
+      </c>
+      <c r="D202">
+        <v>353</v>
+      </c>
+      <c r="E202">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>96</v>
+      </c>
+      <c r="B203" s="10">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>26</v>
+      </c>
+      <c r="D203">
+        <v>328</v>
+      </c>
+      <c r="E203">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>96</v>
+      </c>
+      <c r="B204" s="10">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
+        <v>26</v>
+      </c>
+      <c r="D204">
+        <v>351</v>
+      </c>
+      <c r="E204">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>96</v>
+      </c>
+      <c r="B205" s="10">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>26</v>
+      </c>
+      <c r="D205">
+        <v>340</v>
+      </c>
+      <c r="E205">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>59</v>
+      </c>
+      <c r="B206" s="10">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>26</v>
+      </c>
+      <c r="D206">
         <v>200</v>
       </c>
-      <c r="E135">
-        <v>1000</v>
+      <c r="E206">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>52</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C207" t="s">
+        <v>120</v>
+      </c>
+      <c r="D207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>56</v>
+      </c>
+      <c r="B208" s="10">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>21</v>
+      </c>
+      <c r="D208">
+        <v>201</v>
+      </c>
+      <c r="E208">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>56</v>
+      </c>
+      <c r="B209" s="10">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>85</v>
+      </c>
+      <c r="D209">
+        <v>201</v>
+      </c>
+      <c r="E209">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>57</v>
+      </c>
+      <c r="B210" s="10">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>21</v>
+      </c>
+      <c r="D210">
+        <v>202</v>
+      </c>
+      <c r="E210">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>57</v>
+      </c>
+      <c r="B211" s="10">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>85</v>
+      </c>
+      <c r="D211">
+        <v>202</v>
+      </c>
+      <c r="E211">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>79</v>
+      </c>
+      <c r="B212" s="10">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212">
+        <v>198</v>
+      </c>
+      <c r="E212">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>80</v>
+      </c>
+      <c r="B213" s="10">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213">
+        <v>208</v>
+      </c>
+      <c r="E213">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>81</v>
+      </c>
+      <c r="B214" s="10">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>16</v>
+      </c>
+      <c r="D214">
+        <v>209</v>
+      </c>
+      <c r="E214">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>62</v>
+      </c>
+      <c r="B215" s="10">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>87</v>
+      </c>
+      <c r="D215">
+        <v>220</v>
+      </c>
+      <c r="E215">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>63</v>
+      </c>
+      <c r="B216" s="10">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>20</v>
+      </c>
+      <c r="D216">
+        <v>201</v>
+      </c>
+      <c r="E216">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>73</v>
+      </c>
+      <c r="B217" s="10">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>20</v>
+      </c>
+      <c r="D217">
+        <v>202</v>
+      </c>
+      <c r="E217">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>74</v>
+      </c>
+      <c r="B218" s="10">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>21</v>
+      </c>
+      <c r="D218">
+        <v>301</v>
+      </c>
+      <c r="E218">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>75</v>
+      </c>
+      <c r="B219" s="10">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>24</v>
+      </c>
+      <c r="D219">
+        <v>301</v>
+      </c>
+      <c r="E219">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>76</v>
+      </c>
+      <c r="B220" s="10">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>24</v>
+      </c>
+      <c r="D220">
+        <v>302</v>
+      </c>
+      <c r="E220">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>76</v>
+      </c>
+      <c r="B221" s="10">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>24</v>
+      </c>
+      <c r="D221">
+        <v>304</v>
+      </c>
+      <c r="E221">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>77</v>
+      </c>
+      <c r="B222" s="10">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>24</v>
+      </c>
+      <c r="D222">
+        <v>305</v>
+      </c>
+      <c r="E222">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>78</v>
+      </c>
+      <c r="B223" s="10">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>24</v>
+      </c>
+      <c r="D223">
+        <v>310</v>
+      </c>
+      <c r="E223">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>89</v>
+      </c>
+      <c r="B224" s="10">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
+        <v>24</v>
+      </c>
+      <c r="D224">
+        <v>320</v>
+      </c>
+      <c r="E224">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>96</v>
+      </c>
+      <c r="B225" s="10">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>24</v>
+      </c>
+      <c r="D225">
+        <v>490</v>
+      </c>
+      <c r="E225">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>59</v>
+      </c>
+      <c r="B226" s="10">
+        <v>4</v>
+      </c>
+      <c r="C226" t="s">
+        <v>87</v>
+      </c>
+      <c r="D226">
+        <v>300</v>
+      </c>
+      <c r="E226">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>59</v>
+      </c>
+      <c r="B227" s="10">
+        <v>4</v>
+      </c>
+      <c r="C227" t="s">
+        <v>121</v>
+      </c>
+      <c r="D227">
+        <v>300</v>
+      </c>
+      <c r="E227">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>59</v>
+      </c>
+      <c r="B228" s="10">
+        <v>4</v>
+      </c>
+      <c r="C228" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228">
+        <v>300</v>
+      </c>
+      <c r="E228">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>59</v>
+      </c>
+      <c r="B229" s="10">
+        <v>4</v>
+      </c>
+      <c r="C229" t="s">
+        <v>20</v>
+      </c>
+      <c r="D229">
+        <v>300</v>
+      </c>
+      <c r="E229">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>59</v>
+      </c>
+      <c r="B230" s="10">
+        <v>4</v>
+      </c>
+      <c r="C230" t="s">
+        <v>21</v>
+      </c>
+      <c r="D230">
+        <v>300</v>
+      </c>
+      <c r="E230">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>59</v>
+      </c>
+      <c r="B231" s="10">
+        <v>4</v>
+      </c>
+      <c r="C231" t="s">
+        <v>23</v>
+      </c>
+      <c r="D231">
+        <v>300</v>
+      </c>
+      <c r="E231">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>59</v>
+      </c>
+      <c r="B232" s="10">
+        <v>4</v>
+      </c>
+      <c r="C232" t="s">
+        <v>24</v>
+      </c>
+      <c r="D232">
+        <v>300</v>
+      </c>
+      <c r="E232">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>51</v>
+      </c>
+      <c r="B233" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C233" t="s">
+        <v>122</v>
+      </c>
+      <c r="D233">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>56</v>
+      </c>
+      <c r="B234" s="10">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>121</v>
+      </c>
+      <c r="D234">
+        <v>111</v>
+      </c>
+      <c r="E234">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>57</v>
+      </c>
+      <c r="B235" s="10">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235">
+        <v>110</v>
+      </c>
+      <c r="E235">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>79</v>
+      </c>
+      <c r="B236" s="10">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>20</v>
+      </c>
+      <c r="D236">
+        <v>201</v>
+      </c>
+      <c r="E236">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>80</v>
+      </c>
+      <c r="B237" s="10">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
+        <v>21</v>
+      </c>
+      <c r="D237">
+        <v>201</v>
+      </c>
+      <c r="E237">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>80</v>
+      </c>
+      <c r="B238" s="10">
+        <v>1</v>
+      </c>
+      <c r="C238" t="s">
+        <v>85</v>
+      </c>
+      <c r="D238">
+        <v>201</v>
+      </c>
+      <c r="E238">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>81</v>
+      </c>
+      <c r="B239" s="10">
+        <v>1</v>
+      </c>
+      <c r="C239" t="s">
+        <v>16</v>
+      </c>
+      <c r="D239">
+        <v>208</v>
+      </c>
+      <c r="E239">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>82</v>
+      </c>
+      <c r="B240" s="10">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>26</v>
+      </c>
+      <c r="D240">
+        <v>101</v>
+      </c>
+      <c r="E240">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>62</v>
+      </c>
+      <c r="B241" s="10">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>16</v>
+      </c>
+      <c r="D241">
+        <v>209</v>
+      </c>
+      <c r="E241">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>63</v>
+      </c>
+      <c r="B242" s="10">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>87</v>
+      </c>
+      <c r="D242">
+        <v>220</v>
+      </c>
+      <c r="E242">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>73</v>
+      </c>
+      <c r="B243" s="10">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>24</v>
+      </c>
+      <c r="D243">
+        <v>301</v>
+      </c>
+      <c r="E243">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>74</v>
+      </c>
+      <c r="B244" s="10">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>24</v>
+      </c>
+      <c r="D244">
+        <v>305</v>
+      </c>
+      <c r="E244">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>75</v>
+      </c>
+      <c r="B245" s="10">
+        <v>1</v>
+      </c>
+      <c r="C245" t="s">
+        <v>24</v>
+      </c>
+      <c r="D245">
+        <v>304</v>
+      </c>
+      <c r="E245">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>75</v>
+      </c>
+      <c r="B246" s="10">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>24</v>
+      </c>
+      <c r="D246">
+        <v>340</v>
+      </c>
+      <c r="E246">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>76</v>
+      </c>
+      <c r="B247" s="10">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
+        <v>24</v>
+      </c>
+      <c r="D247">
+        <v>310</v>
+      </c>
+      <c r="E247">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>77</v>
+      </c>
+      <c r="B248" s="10">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
+        <v>24</v>
+      </c>
+      <c r="D248">
+        <v>320</v>
+      </c>
+      <c r="E248">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>78</v>
+      </c>
+      <c r="B249" s="10">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>24</v>
+      </c>
+      <c r="D249">
+        <v>490</v>
+      </c>
+      <c r="E249">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>59</v>
+      </c>
+      <c r="B250" s="10">
+        <v>2</v>
+      </c>
+      <c r="C250" t="s">
+        <v>24</v>
+      </c>
+      <c r="D250">
+        <v>300</v>
+      </c>
+      <c r="E250">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>60</v>
+      </c>
+      <c r="B251" s="10">
+        <v>2</v>
+      </c>
+      <c r="C251" t="s">
+        <v>87</v>
+      </c>
+      <c r="D251">
+        <v>300</v>
+      </c>
+      <c r="E251">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>60</v>
+      </c>
+      <c r="B252" s="10">
+        <v>2</v>
+      </c>
+      <c r="C252" t="s">
+        <v>121</v>
+      </c>
+      <c r="D252">
+        <v>300</v>
+      </c>
+      <c r="E252">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>60</v>
+      </c>
+      <c r="B253" s="10">
+        <v>2</v>
+      </c>
+      <c r="C253" t="s">
+        <v>123</v>
+      </c>
+      <c r="D253">
+        <v>300</v>
+      </c>
+      <c r="E253">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>60</v>
+      </c>
+      <c r="B254" s="10">
+        <v>2</v>
+      </c>
+      <c r="C254" t="s">
+        <v>124</v>
+      </c>
+      <c r="D254">
+        <v>300</v>
+      </c>
+      <c r="E254">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>60</v>
+      </c>
+      <c r="B255" s="10">
+        <v>2</v>
+      </c>
+      <c r="C255" t="s">
+        <v>20</v>
+      </c>
+      <c r="D255">
+        <v>300</v>
+      </c>
+      <c r="E255">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>60</v>
+      </c>
+      <c r="B256" s="10">
+        <v>2</v>
+      </c>
+      <c r="C256" t="s">
+        <v>21</v>
+      </c>
+      <c r="D256">
+        <v>300</v>
+      </c>
+      <c r="E256">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>60</v>
+      </c>
+      <c r="B257" s="10">
+        <v>2</v>
+      </c>
+      <c r="C257" t="s">
+        <v>23</v>
+      </c>
+      <c r="D257">
+        <v>300</v>
+      </c>
+      <c r="E257">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>60</v>
+      </c>
+      <c r="B258" s="10">
+        <v>2</v>
+      </c>
+      <c r="C258" t="s">
+        <v>24</v>
+      </c>
+      <c r="D258">
+        <v>300</v>
+      </c>
+      <c r="E258">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>60</v>
+      </c>
+      <c r="B259" s="10">
+        <v>2</v>
+      </c>
+      <c r="C259" t="s">
+        <v>16</v>
+      </c>
+      <c r="D259">
+        <v>198</v>
+      </c>
+      <c r="E259">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>49</v>
+      </c>
+      <c r="B260" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C260" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D260">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>62</v>
+      </c>
+      <c r="B261" s="10">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
+        <v>127</v>
+      </c>
+      <c r="D261">
+        <v>301</v>
+      </c>
+      <c r="E261">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>63</v>
+      </c>
+      <c r="B262" s="10">
+        <v>1</v>
+      </c>
+      <c r="C262" t="s">
+        <v>127</v>
+      </c>
+      <c r="D262">
+        <v>302</v>
+      </c>
+      <c r="E262">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>63</v>
+      </c>
+      <c r="B263" s="10">
+        <v>1</v>
+      </c>
+      <c r="C263" t="s">
+        <v>127</v>
+      </c>
+      <c r="D263">
+        <v>308</v>
+      </c>
+      <c r="E263">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>63</v>
+      </c>
+      <c r="B264" s="10">
+        <v>1</v>
+      </c>
+      <c r="C264" t="s">
+        <v>127</v>
+      </c>
+      <c r="D264">
+        <v>309</v>
+      </c>
+      <c r="E264">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>73</v>
+      </c>
+      <c r="B265" s="10">
+        <v>1</v>
+      </c>
+      <c r="C265" t="s">
+        <v>127</v>
+      </c>
+      <c r="D265">
+        <v>310</v>
+      </c>
+      <c r="E265">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>74</v>
+      </c>
+      <c r="B266" s="10">
+        <v>1</v>
+      </c>
+      <c r="C266" t="s">
+        <v>127</v>
+      </c>
+      <c r="D266">
+        <v>317</v>
+      </c>
+      <c r="E266">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>75</v>
+      </c>
+      <c r="B267" s="10">
+        <v>1</v>
+      </c>
+      <c r="C267" t="s">
+        <v>111</v>
+      </c>
+      <c r="D267">
+        <v>365</v>
+      </c>
+      <c r="E267">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>75</v>
+      </c>
+      <c r="B268" s="10">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
+        <v>111</v>
+      </c>
+      <c r="D268">
+        <v>366</v>
+      </c>
+      <c r="E268">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>75</v>
+      </c>
+      <c r="B269" s="10">
+        <v>1</v>
+      </c>
+      <c r="C269" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D269" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E269" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F269" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>76</v>
+      </c>
+      <c r="B270" s="10">
+        <v>1</v>
+      </c>
+      <c r="C270" t="s">
+        <v>130</v>
+      </c>
+      <c r="D270">
+        <v>250</v>
+      </c>
+      <c r="E270">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>76</v>
+      </c>
+      <c r="B271" s="10">
+        <v>1</v>
+      </c>
+      <c r="C271" t="s">
+        <v>25</v>
+      </c>
+      <c r="D271">
+        <v>215</v>
+      </c>
+      <c r="E271">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>77</v>
+      </c>
+      <c r="B272" s="10">
+        <v>1</v>
+      </c>
+      <c r="C272" t="s">
+        <v>131</v>
+      </c>
+      <c r="D272">
+        <v>260</v>
+      </c>
+      <c r="E272">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>78</v>
+      </c>
+      <c r="B273" s="10">
+        <v>1</v>
+      </c>
+      <c r="C273" t="s">
+        <v>132</v>
+      </c>
+      <c r="D273">
+        <v>332</v>
+      </c>
+      <c r="E273">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>89</v>
+      </c>
+      <c r="B274" s="10">
+        <v>1</v>
+      </c>
+      <c r="C274" t="s">
+        <v>127</v>
+      </c>
+      <c r="D274">
+        <v>401</v>
+      </c>
+      <c r="E274">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>96</v>
+      </c>
+      <c r="B275" s="10">
+        <v>1</v>
+      </c>
+      <c r="C275" t="s">
+        <v>25</v>
+      </c>
+      <c r="D275">
+        <v>460</v>
+      </c>
+      <c r="E275">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>96</v>
+      </c>
+      <c r="B276" s="10">
+        <v>1</v>
+      </c>
+      <c r="C276" t="s">
+        <v>129</v>
+      </c>
+      <c r="D276">
+        <v>380</v>
+      </c>
+      <c r="E276">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>96</v>
+      </c>
+      <c r="B277" s="10">
+        <v>1</v>
+      </c>
+      <c r="C277" t="s">
+        <v>133</v>
+      </c>
+      <c r="D277">
+        <v>460</v>
+      </c>
+      <c r="E277">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>97</v>
+      </c>
+      <c r="B278" s="10">
+        <v>1</v>
+      </c>
+      <c r="C278" t="s">
+        <v>127</v>
+      </c>
+      <c r="D278">
+        <v>480</v>
+      </c>
+      <c r="E278">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>59</v>
+      </c>
+      <c r="B279" s="10">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>127</v>
+      </c>
+      <c r="D279">
+        <v>300</v>
+      </c>
+      <c r="E279">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>59</v>
+      </c>
+      <c r="B280" s="10">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>136</v>
+      </c>
+      <c r="D280">
+        <v>300</v>
+      </c>
+      <c r="E280">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>59</v>
+      </c>
+      <c r="B281" s="10">
+        <v>5</v>
+      </c>
+      <c r="C281" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D281" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E281" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F281" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A109 A111:A1048576">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="elc ">
+  <conditionalFormatting sqref="A1:A137 A139:A164 A166:A176 A178:A190 A208:A232 A234:A259 A261:A1048576 A192:A206">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="elc ">
       <formula>NOT(ISERROR(SEARCH("elc ",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="cor ">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="cor ">
       <formula>NOT(ISERROR(SEARCH("cor ",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="add ">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="add ">
       <formula>NOT(ISERROR(SEARCH("add ",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2852,10 +5973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AC27B8-1BF8-42B7-96D3-0055CAD9AC91}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2866,7 +5987,7 @@
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2879,80 +6000,153 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1">
+        <f>COUNTA(D2:D29)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2994,31 +6188,102 @@
       <c r="A24" t="s">
         <v>49</v>
       </c>
+      <c r="B24" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="8" t="s">
         <v>51</v>
       </c>
+      <c r="B25" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="8" t="s">
         <v>52</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
+      <c r="B27" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
+      <c r="B28" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
+      <c r="B29" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -3037,19 +6302,26 @@
         <v>72</v>
       </c>
     </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="elc ">
+    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="elc ">
       <formula>NOT(ISERROR(SEARCH("elc ",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="cor ">
+    <cfRule type="containsText" dxfId="1" priority="14" operator="containsText" text="cor ">
       <formula>NOT(ISERROR(SEARCH("cor ",A32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="add ">
+    <cfRule type="containsText" dxfId="0" priority="15" operator="containsText" text="add ">
       <formula>NOT(ISERROR(SEARCH("add ",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3565,4 +6837,192 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3301E5F-010C-4021-8BC2-3B4BCEAE84A8}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C16">
+    <sortCondition ref="C3:C16"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/prerequisites/trial prereq/execution_files/majors list.xlsx
+++ b/prerequisites/trial prereq/execution_files/majors list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jcuoncloud-my.sharepoint.com/personal/pangelini_johncabot_edu/Documents/Teaching/ResearchAssistantship/FA22-Elettra/advising/prerequisites/trial prereq/execution_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jcuoncloud-my.sharepoint.com/personal/elettra_scianetti_johncabot_edu/Documents/Documents/advising/prerequisites/trial prereq/execution_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2536" documentId="13_ncr:1_{C33D7932-E03C-452A-ACDA-0A7400E5C19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82A7DB60-B1E7-43E1-AD60-2ABF03B5C8A4}"/>
+  <xr:revisionPtr revIDLastSave="2554" documentId="13_ncr:1_{C33D7932-E03C-452A-ACDA-0A7400E5C19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9FBAEB4-116D-4211-AB44-1CC5397484BB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{39B82AA1-F665-4363-970D-8821589D72FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{39B82AA1-F665-4363-970D-8821589D72FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Majors" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="245">
   <si>
     <t>Major Name</t>
   </si>
@@ -903,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -951,12 +951,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,6 +1160,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1471,12 +1469,12 @@
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1490,7 +1488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1507,7 +1505,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1524,7 +1522,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -1541,7 +1539,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -1558,7 +1556,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1575,7 +1573,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1592,7 +1590,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -1609,7 +1607,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -1626,7 +1624,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -1643,7 +1641,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -1660,7 +1658,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1677,7 +1675,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -1694,7 +1692,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -1711,7 +1709,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -1728,7 +1726,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1763,29 +1761,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701C36C7-83AA-41D8-8B1C-C0D8358D86FD}">
-  <dimension ref="A1:G752"/>
+  <dimension ref="A1:G754"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D646" sqref="D646"/>
+      <pane ySplit="1" topLeftCell="A635" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F659" sqref="F659"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="90" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.453125" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1826,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1843,7 +1841,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1860,7 +1858,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1877,7 +1875,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1894,7 +1892,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -1911,7 +1909,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -1928,7 +1926,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1945,7 +1943,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1962,7 +1960,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1979,7 +1977,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1996,7 +1994,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -2013,7 +2011,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2030,7 +2028,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -2047,7 +2045,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -2064,7 +2062,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -2081,7 +2079,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -2098,7 +2096,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -2115,7 +2113,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -2132,7 +2130,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -2149,7 +2147,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -2166,7 +2164,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -2183,7 +2181,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2200,7 +2198,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -2217,7 +2215,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2234,7 +2232,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2251,7 +2249,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -2268,7 +2266,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -2285,7 +2283,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -2302,7 +2300,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2319,7 +2317,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -2336,7 +2334,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -2353,7 +2351,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -2370,7 +2368,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -2387,7 +2385,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2404,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -2421,7 +2419,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -2438,7 +2436,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2455,7 +2453,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -2472,7 +2470,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -2489,7 +2487,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -2506,7 +2504,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -2523,7 +2521,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -2540,7 +2538,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -2557,7 +2555,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -2574,7 +2572,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -2591,7 +2589,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -2608,7 +2606,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -2625,7 +2623,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -2642,7 +2640,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -2659,7 +2657,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -2676,7 +2674,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -2693,7 +2691,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -2710,7 +2708,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -2727,7 +2725,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -2744,7 +2742,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -2761,7 +2759,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -2778,7 +2776,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2795,7 +2793,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2812,7 +2810,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2829,7 +2827,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2846,7 +2844,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -2863,7 +2861,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -2880,7 +2878,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -2897,7 +2895,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -2914,7 +2912,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>59</v>
       </c>
@@ -2931,7 +2929,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -2948,7 +2946,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -2965,7 +2963,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -2982,7 +2980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -2999,7 +2997,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>56</v>
       </c>
@@ -3016,7 +3014,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -3033,7 +3031,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -3050,7 +3048,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -3067,7 +3065,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -3084,7 +3082,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -3101,7 +3099,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -3118,7 +3116,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -3135,7 +3133,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -3152,7 +3150,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>61</v>
       </c>
@@ -3169,7 +3167,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>62</v>
       </c>
@@ -3186,7 +3184,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>72</v>
       </c>
@@ -3203,7 +3201,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -3220,7 +3218,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>73</v>
       </c>
@@ -3237,7 +3235,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -3254,7 +3252,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>75</v>
       </c>
@@ -3271,7 +3269,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>75</v>
       </c>
@@ -3288,7 +3286,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>75</v>
       </c>
@@ -3305,7 +3303,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>76</v>
       </c>
@@ -3322,7 +3320,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>76</v>
       </c>
@@ -3339,7 +3337,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -3356,7 +3354,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>58</v>
       </c>
@@ -3373,7 +3371,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>58</v>
       </c>
@@ -3390,7 +3388,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>58</v>
       </c>
@@ -3407,7 +3405,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>58</v>
       </c>
@@ -3424,7 +3422,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>58</v>
       </c>
@@ -3441,7 +3439,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>59</v>
       </c>
@@ -3458,7 +3456,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>59</v>
       </c>
@@ -3475,7 +3473,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>59</v>
       </c>
@@ -3492,7 +3490,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>59</v>
       </c>
@@ -3509,7 +3507,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>59</v>
       </c>
@@ -3526,7 +3524,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>59</v>
       </c>
@@ -3543,7 +3541,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>59</v>
       </c>
@@ -3560,7 +3558,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>59</v>
       </c>
@@ -3577,7 +3575,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>59</v>
       </c>
@@ -3594,7 +3592,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>59</v>
       </c>
@@ -3611,7 +3609,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>59</v>
       </c>
@@ -3628,7 +3626,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>59</v>
       </c>
@@ -3645,7 +3643,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>47</v>
       </c>
@@ -3662,7 +3660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>55</v>
       </c>
@@ -3679,7 +3677,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>56</v>
       </c>
@@ -3696,7 +3694,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>78</v>
       </c>
@@ -3713,7 +3711,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>79</v>
       </c>
@@ -3730,7 +3728,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>80</v>
       </c>
@@ -3747,7 +3745,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>61</v>
       </c>
@@ -3764,7 +3762,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>61</v>
       </c>
@@ -3781,7 +3779,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -3798,7 +3796,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>62</v>
       </c>
@@ -3815,7 +3813,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>72</v>
       </c>
@@ -3832,7 +3830,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>72</v>
       </c>
@@ -3849,7 +3847,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>73</v>
       </c>
@@ -3866,7 +3864,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>74</v>
       </c>
@@ -3883,7 +3881,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>75</v>
       </c>
@@ -3900,7 +3898,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -3917,7 +3915,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>77</v>
       </c>
@@ -3934,7 +3932,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>88</v>
       </c>
@@ -3951,7 +3949,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>95</v>
       </c>
@@ -3968,7 +3966,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>96</v>
       </c>
@@ -3985,7 +3983,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>96</v>
       </c>
@@ -4002,7 +4000,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>97</v>
       </c>
@@ -4019,7 +4017,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>58</v>
       </c>
@@ -4036,7 +4034,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>58</v>
       </c>
@@ -4053,7 +4051,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>58</v>
       </c>
@@ -4070,7 +4068,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>58</v>
       </c>
@@ -4087,7 +4085,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>58</v>
       </c>
@@ -4104,7 +4102,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>58</v>
       </c>
@@ -4121,7 +4119,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -4138,7 +4136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>55</v>
       </c>
@@ -4155,7 +4153,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>56</v>
       </c>
@@ -4172,7 +4170,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>78</v>
       </c>
@@ -4189,7 +4187,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>61</v>
       </c>
@@ -4206,7 +4204,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>62</v>
       </c>
@@ -4223,7 +4221,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>72</v>
       </c>
@@ -4240,7 +4238,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>73</v>
       </c>
@@ -4257,7 +4255,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>73</v>
       </c>
@@ -4274,7 +4272,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>74</v>
       </c>
@@ -4291,7 +4289,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>74</v>
       </c>
@@ -4308,7 +4306,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>75</v>
       </c>
@@ -4325,7 +4323,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>76</v>
       </c>
@@ -4342,7 +4340,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>77</v>
       </c>
@@ -4359,7 +4357,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>88</v>
       </c>
@@ -4376,7 +4374,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>95</v>
       </c>
@@ -4393,7 +4391,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>96</v>
       </c>
@@ -4410,7 +4408,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>97</v>
       </c>
@@ -4427,7 +4425,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>58</v>
       </c>
@@ -4444,7 +4442,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>58</v>
       </c>
@@ -4461,7 +4459,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>58</v>
       </c>
@@ -4478,7 +4476,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>58</v>
       </c>
@@ -4495,7 +4493,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>58</v>
       </c>
@@ -4512,7 +4510,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>58</v>
       </c>
@@ -4529,7 +4527,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>58</v>
       </c>
@@ -4546,7 +4544,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>58</v>
       </c>
@@ -4563,7 +4561,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>58</v>
       </c>
@@ -4580,7 +4578,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>53</v>
       </c>
@@ -4597,7 +4595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>61</v>
       </c>
@@ -4614,7 +4612,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>62</v>
       </c>
@@ -4631,7 +4629,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>72</v>
       </c>
@@ -4648,7 +4646,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>73</v>
       </c>
@@ -4665,7 +4663,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>74</v>
       </c>
@@ -4682,7 +4680,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>75</v>
       </c>
@@ -4699,7 +4697,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>76</v>
       </c>
@@ -4716,7 +4714,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>77</v>
       </c>
@@ -4733,7 +4731,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>88</v>
       </c>
@@ -4750,7 +4748,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>95</v>
       </c>
@@ -4767,7 +4765,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>96</v>
       </c>
@@ -4784,7 +4782,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>58</v>
       </c>
@@ -4801,7 +4799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>52</v>
       </c>
@@ -4818,7 +4816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>61</v>
       </c>
@@ -4835,7 +4833,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>62</v>
       </c>
@@ -4852,7 +4850,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>72</v>
       </c>
@@ -4869,7 +4867,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>73</v>
       </c>
@@ -4886,7 +4884,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>73</v>
       </c>
@@ -4903,7 +4901,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>73</v>
       </c>
@@ -4923,7 +4921,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>73</v>
       </c>
@@ -4940,7 +4938,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>74</v>
       </c>
@@ -4957,7 +4955,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>58</v>
       </c>
@@ -4971,7 +4969,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>58</v>
       </c>
@@ -4989,7 +4987,7 @@
       </c>
       <c r="F188" s="18"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>59</v>
       </c>
@@ -5006,7 +5004,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>60</v>
       </c>
@@ -5023,7 +5021,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>54</v>
       </c>
@@ -5040,7 +5038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>61</v>
       </c>
@@ -5057,7 +5055,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>62</v>
       </c>
@@ -5074,7 +5072,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>72</v>
       </c>
@@ -5091,7 +5089,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>73</v>
       </c>
@@ -5108,7 +5106,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>74</v>
       </c>
@@ -5125,7 +5123,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>75</v>
       </c>
@@ -5142,7 +5140,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>76</v>
       </c>
@@ -5159,7 +5157,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>77</v>
       </c>
@@ -5176,7 +5174,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>88</v>
       </c>
@@ -5196,7 +5194,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>95</v>
       </c>
@@ -5213,7 +5211,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>95</v>
       </c>
@@ -5230,7 +5228,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>95</v>
       </c>
@@ -5247,7 +5245,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>95</v>
       </c>
@@ -5264,7 +5262,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>95</v>
       </c>
@@ -5281,7 +5279,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>58</v>
       </c>
@@ -5298,7 +5296,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>51</v>
       </c>
@@ -5315,7 +5313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>55</v>
       </c>
@@ -5332,7 +5330,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>55</v>
       </c>
@@ -5349,7 +5347,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>56</v>
       </c>
@@ -5366,7 +5364,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>56</v>
       </c>
@@ -5383,7 +5381,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>78</v>
       </c>
@@ -5400,7 +5398,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>79</v>
       </c>
@@ -5417,7 +5415,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>80</v>
       </c>
@@ -5434,7 +5432,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>61</v>
       </c>
@@ -5451,7 +5449,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>62</v>
       </c>
@@ -5468,7 +5466,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>72</v>
       </c>
@@ -5485,7 +5483,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>73</v>
       </c>
@@ -5502,7 +5500,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>74</v>
       </c>
@@ -5519,7 +5517,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>75</v>
       </c>
@@ -5536,7 +5534,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>75</v>
       </c>
@@ -5553,7 +5551,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>76</v>
       </c>
@@ -5570,7 +5568,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>77</v>
       </c>
@@ -5587,7 +5585,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>88</v>
       </c>
@@ -5604,7 +5602,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>95</v>
       </c>
@@ -5621,7 +5619,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>58</v>
       </c>
@@ -5638,7 +5636,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>58</v>
       </c>
@@ -5655,7 +5653,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>58</v>
       </c>
@@ -5672,7 +5670,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>58</v>
       </c>
@@ -5689,7 +5687,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>58</v>
       </c>
@@ -5706,7 +5704,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>58</v>
       </c>
@@ -5723,7 +5721,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>58</v>
       </c>
@@ -5740,7 +5738,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>50</v>
       </c>
@@ -5757,7 +5755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>55</v>
       </c>
@@ -5774,7 +5772,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>56</v>
       </c>
@@ -5791,7 +5789,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>78</v>
       </c>
@@ -5808,7 +5806,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>79</v>
       </c>
@@ -5825,7 +5823,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>79</v>
       </c>
@@ -5842,7 +5840,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>80</v>
       </c>
@@ -5859,7 +5857,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>81</v>
       </c>
@@ -5876,7 +5874,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>61</v>
       </c>
@@ -5893,7 +5891,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>62</v>
       </c>
@@ -5910,7 +5908,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>72</v>
       </c>
@@ -5927,7 +5925,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>73</v>
       </c>
@@ -5944,7 +5942,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>74</v>
       </c>
@@ -5961,7 +5959,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>74</v>
       </c>
@@ -5978,7 +5976,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>75</v>
       </c>
@@ -5995,7 +5993,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>76</v>
       </c>
@@ -6012,7 +6010,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>77</v>
       </c>
@@ -6029,7 +6027,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>58</v>
       </c>
@@ -6046,7 +6044,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>59</v>
       </c>
@@ -6063,7 +6061,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>59</v>
       </c>
@@ -6080,7 +6078,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>59</v>
       </c>
@@ -6097,7 +6095,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>59</v>
       </c>
@@ -6114,7 +6112,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>59</v>
       </c>
@@ -6131,7 +6129,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>59</v>
       </c>
@@ -6148,7 +6146,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>59</v>
       </c>
@@ -6165,7 +6163,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>59</v>
       </c>
@@ -6182,7 +6180,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>59</v>
       </c>
@@ -6199,7 +6197,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>48</v>
       </c>
@@ -6216,7 +6214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>61</v>
       </c>
@@ -6233,7 +6231,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>62</v>
       </c>
@@ -6250,7 +6248,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>62</v>
       </c>
@@ -6267,7 +6265,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>62</v>
       </c>
@@ -6284,7 +6282,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>72</v>
       </c>
@@ -6301,7 +6299,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>73</v>
       </c>
@@ -6318,7 +6316,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>74</v>
       </c>
@@ -6335,7 +6333,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>74</v>
       </c>
@@ -6352,7 +6350,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>74</v>
       </c>
@@ -6372,7 +6370,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>75</v>
       </c>
@@ -6389,7 +6387,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>75</v>
       </c>
@@ -6406,7 +6404,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>76</v>
       </c>
@@ -6423,7 +6421,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>77</v>
       </c>
@@ -6440,7 +6438,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>88</v>
       </c>
@@ -6457,7 +6455,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>95</v>
       </c>
@@ -6474,7 +6472,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>95</v>
       </c>
@@ -6491,7 +6489,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>95</v>
       </c>
@@ -6508,7 +6506,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>96</v>
       </c>
@@ -6525,7 +6523,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>58</v>
       </c>
@@ -6542,7 +6540,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>58</v>
       </c>
@@ -6559,7 +6557,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>58</v>
       </c>
@@ -6576,7 +6574,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>58</v>
       </c>
@@ -6593,7 +6591,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>58</v>
       </c>
@@ -6610,7 +6608,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>58</v>
       </c>
@@ -6627,7 +6625,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>58</v>
       </c>
@@ -6644,7 +6642,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>58</v>
       </c>
@@ -6661,7 +6659,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>58</v>
       </c>
@@ -6678,7 +6676,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>58</v>
       </c>
@@ -6695,7 +6693,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>58</v>
       </c>
@@ -6712,7 +6710,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>58</v>
       </c>
@@ -6729,7 +6727,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>58</v>
       </c>
@@ -6746,7 +6744,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>58</v>
       </c>
@@ -6763,7 +6761,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>58</v>
       </c>
@@ -6780,7 +6778,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>58</v>
       </c>
@@ -6797,7 +6795,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>58</v>
       </c>
@@ -6814,7 +6812,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>58</v>
       </c>
@@ -6831,7 +6829,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>58</v>
       </c>
@@ -6848,7 +6846,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>58</v>
       </c>
@@ -6865,7 +6863,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>58</v>
       </c>
@@ -6882,7 +6880,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>58</v>
       </c>
@@ -6899,7 +6897,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>58</v>
       </c>
@@ -6916,7 +6914,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>58</v>
       </c>
@@ -6933,7 +6931,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>58</v>
       </c>
@@ -6950,7 +6948,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>58</v>
       </c>
@@ -6967,7 +6965,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>58</v>
       </c>
@@ -6984,7 +6982,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>58</v>
       </c>
@@ -7001,7 +6999,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>58</v>
       </c>
@@ -7018,7 +7016,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>58</v>
       </c>
@@ -7035,7 +7033,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>58</v>
       </c>
@@ -7052,7 +7050,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>58</v>
       </c>
@@ -7069,7 +7067,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>58</v>
       </c>
@@ -7086,7 +7084,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>58</v>
       </c>
@@ -7103,7 +7101,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>58</v>
       </c>
@@ -7120,7 +7118,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>58</v>
       </c>
@@ -7137,7 +7135,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>58</v>
       </c>
@@ -7154,7 +7152,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>58</v>
       </c>
@@ -7171,7 +7169,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>58</v>
       </c>
@@ -7188,7 +7186,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>58</v>
       </c>
@@ -7205,7 +7203,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>58</v>
       </c>
@@ -7222,7 +7220,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>58</v>
       </c>
@@ -7239,7 +7237,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>58</v>
       </c>
@@ -7256,7 +7254,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>58</v>
       </c>
@@ -7273,7 +7271,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>58</v>
       </c>
@@ -7290,7 +7288,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>58</v>
       </c>
@@ -7307,7 +7305,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>58</v>
       </c>
@@ -7324,7 +7322,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>58</v>
       </c>
@@ -7341,7 +7339,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>58</v>
       </c>
@@ -7358,7 +7356,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>58</v>
       </c>
@@ -7375,7 +7373,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>58</v>
       </c>
@@ -7392,7 +7390,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>58</v>
       </c>
@@ -7409,7 +7407,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>58</v>
       </c>
@@ -7426,7 +7424,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>58</v>
       </c>
@@ -7443,7 +7441,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>58</v>
       </c>
@@ -7460,7 +7458,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>49</v>
       </c>
@@ -7477,7 +7475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>61</v>
       </c>
@@ -7494,7 +7492,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>62</v>
       </c>
@@ -7511,7 +7509,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>72</v>
       </c>
@@ -7528,7 +7526,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>73</v>
       </c>
@@ -7542,7 +7540,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>73</v>
       </c>
@@ -7559,7 +7557,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>73</v>
       </c>
@@ -7576,7 +7574,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>73</v>
       </c>
@@ -7593,7 +7591,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>73</v>
       </c>
@@ -7610,7 +7608,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>73</v>
       </c>
@@ -7627,7 +7625,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>73</v>
       </c>
@@ -7644,7 +7642,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>73</v>
       </c>
@@ -7661,7 +7659,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>73</v>
       </c>
@@ -7678,7 +7676,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>74</v>
       </c>
@@ -7695,7 +7693,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>74</v>
       </c>
@@ -7712,7 +7710,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>75</v>
       </c>
@@ -7729,7 +7727,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>76</v>
       </c>
@@ -7746,7 +7744,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>76</v>
       </c>
@@ -7763,7 +7761,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>77</v>
       </c>
@@ -7780,7 +7778,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>88</v>
       </c>
@@ -7797,7 +7795,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>95</v>
       </c>
@@ -7814,7 +7812,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>58</v>
       </c>
@@ -7831,7 +7829,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>58</v>
       </c>
@@ -7848,7 +7846,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>58</v>
       </c>
@@ -7865,7 +7863,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>58</v>
       </c>
@@ -7882,7 +7880,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>58</v>
       </c>
@@ -7899,7 +7897,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>58</v>
       </c>
@@ -7916,7 +7914,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>58</v>
       </c>
@@ -7933,7 +7931,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>58</v>
       </c>
@@ -7950,7 +7948,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>58</v>
       </c>
@@ -7967,7 +7965,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>58</v>
       </c>
@@ -7984,7 +7982,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>58</v>
       </c>
@@ -8001,7 +7999,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>58</v>
       </c>
@@ -8018,7 +8016,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>58</v>
       </c>
@@ -8035,7 +8033,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>58</v>
       </c>
@@ -8052,7 +8050,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>58</v>
       </c>
@@ -8069,7 +8067,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>58</v>
       </c>
@@ -8086,7 +8084,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>58</v>
       </c>
@@ -8103,7 +8101,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>58</v>
       </c>
@@ -8120,7 +8118,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>58</v>
       </c>
@@ -8137,7 +8135,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>58</v>
       </c>
@@ -8154,7 +8152,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>58</v>
       </c>
@@ -8171,7 +8169,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>58</v>
       </c>
@@ -8188,7 +8186,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>58</v>
       </c>
@@ -8205,7 +8203,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>58</v>
       </c>
@@ -8222,7 +8220,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>58</v>
       </c>
@@ -8239,7 +8237,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>58</v>
       </c>
@@ -8256,7 +8254,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>58</v>
       </c>
@@ -8273,7 +8271,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>58</v>
       </c>
@@ -8290,7 +8288,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>58</v>
       </c>
@@ -8307,7 +8305,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>58</v>
       </c>
@@ -8324,7 +8322,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>58</v>
       </c>
@@ -8341,7 +8339,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>58</v>
       </c>
@@ -8358,7 +8356,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>58</v>
       </c>
@@ -8375,7 +8373,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>58</v>
       </c>
@@ -8392,7 +8390,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>58</v>
       </c>
@@ -8409,7 +8407,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>58</v>
       </c>
@@ -8426,7 +8424,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>58</v>
       </c>
@@ -8443,7 +8441,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>58</v>
       </c>
@@ -8460,7 +8458,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>58</v>
       </c>
@@ -8477,7 +8475,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>58</v>
       </c>
@@ -8494,7 +8492,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>58</v>
       </c>
@@ -8511,7 +8509,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>58</v>
       </c>
@@ -8528,7 +8526,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>58</v>
       </c>
@@ -8545,7 +8543,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>58</v>
       </c>
@@ -8562,7 +8560,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>58</v>
       </c>
@@ -8579,7 +8577,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>58</v>
       </c>
@@ -8596,7 +8594,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>58</v>
       </c>
@@ -8613,7 +8611,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>58</v>
       </c>
@@ -8630,7 +8628,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>58</v>
       </c>
@@ -8647,7 +8645,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>58</v>
       </c>
@@ -8664,7 +8662,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>58</v>
       </c>
@@ -8681,7 +8679,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>58</v>
       </c>
@@ -8698,7 +8696,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>35</v>
       </c>
@@ -8713,7 +8711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>61</v>
       </c>
@@ -8730,7 +8728,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>62</v>
       </c>
@@ -8747,7 +8745,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>72</v>
       </c>
@@ -8764,7 +8762,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>73</v>
       </c>
@@ -8781,7 +8779,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>74</v>
       </c>
@@ -8798,7 +8796,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>75</v>
       </c>
@@ -8815,7 +8813,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>76</v>
       </c>
@@ -8832,7 +8830,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>77</v>
       </c>
@@ -8849,7 +8847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>88</v>
       </c>
@@ -8866,7 +8864,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>95</v>
       </c>
@@ -8883,7 +8881,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>58</v>
       </c>
@@ -8900,7 +8898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>59</v>
       </c>
@@ -8917,7 +8915,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>59</v>
       </c>
@@ -8934,7 +8932,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>59</v>
       </c>
@@ -8951,7 +8949,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>59</v>
       </c>
@@ -8968,7 +8966,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>60</v>
       </c>
@@ -8985,7 +8983,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>60</v>
       </c>
@@ -9002,7 +9000,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>60</v>
       </c>
@@ -9019,7 +9017,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>60</v>
       </c>
@@ -9036,7 +9034,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>60</v>
       </c>
@@ -9053,7 +9051,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>60</v>
       </c>
@@ -9070,7 +9068,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>60</v>
       </c>
@@ -9087,7 +9085,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>60</v>
       </c>
@@ -9104,7 +9102,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>60</v>
       </c>
@@ -9121,7 +9119,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>60</v>
       </c>
@@ -9138,7 +9136,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>60</v>
       </c>
@@ -9155,7 +9153,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>60</v>
       </c>
@@ -9172,7 +9170,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>60</v>
       </c>
@@ -9189,7 +9187,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>60</v>
       </c>
@@ -9206,7 +9204,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>60</v>
       </c>
@@ -9223,7 +9221,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>60</v>
       </c>
@@ -9240,7 +9238,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>60</v>
       </c>
@@ -9257,7 +9255,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>60</v>
       </c>
@@ -9274,7 +9272,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>60</v>
       </c>
@@ -9291,7 +9289,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>60</v>
       </c>
@@ -9308,7 +9306,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>60</v>
       </c>
@@ -9325,7 +9323,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>60</v>
       </c>
@@ -9342,7 +9340,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>60</v>
       </c>
@@ -9359,7 +9357,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>60</v>
       </c>
@@ -9376,7 +9374,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>60</v>
       </c>
@@ -9393,7 +9391,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>60</v>
       </c>
@@ -9410,7 +9408,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>60</v>
       </c>
@@ -9427,7 +9425,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>60</v>
       </c>
@@ -9444,7 +9442,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>60</v>
       </c>
@@ -9461,7 +9459,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>60</v>
       </c>
@@ -9478,7 +9476,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>60</v>
       </c>
@@ -9495,7 +9493,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>60</v>
       </c>
@@ -9512,7 +9510,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>60</v>
       </c>
@@ -9529,7 +9527,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>60</v>
       </c>
@@ -9546,7 +9544,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>60</v>
       </c>
@@ -9563,7 +9561,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>29</v>
       </c>
@@ -9580,7 +9578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>61</v>
       </c>
@@ -9597,7 +9595,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>61</v>
       </c>
@@ -9614,7 +9612,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>62</v>
       </c>
@@ -9631,7 +9629,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>62</v>
       </c>
@@ -9648,7 +9646,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>72</v>
       </c>
@@ -9665,7 +9663,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>72</v>
       </c>
@@ -9682,7 +9680,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>73</v>
       </c>
@@ -9699,7 +9697,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>73</v>
       </c>
@@ -9716,7 +9714,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>74</v>
       </c>
@@ -9733,7 +9731,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>75</v>
       </c>
@@ -9753,7 +9751,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>76</v>
       </c>
@@ -9767,7 +9765,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>76</v>
       </c>
@@ -9785,7 +9783,7 @@
       </c>
       <c r="F470" s="18"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>77</v>
       </c>
@@ -9802,7 +9800,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>88</v>
       </c>
@@ -9819,7 +9817,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>58</v>
       </c>
@@ -9836,7 +9834,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>59</v>
       </c>
@@ -9853,7 +9851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>60</v>
       </c>
@@ -9870,7 +9868,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>60</v>
       </c>
@@ -9887,7 +9885,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>60</v>
       </c>
@@ -9904,7 +9902,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>60</v>
       </c>
@@ -9921,7 +9919,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>60</v>
       </c>
@@ -9938,7 +9936,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>60</v>
       </c>
@@ -9955,7 +9953,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>60</v>
       </c>
@@ -9972,7 +9970,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>60</v>
       </c>
@@ -9989,7 +9987,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>30</v>
       </c>
@@ -10006,7 +10004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>61</v>
       </c>
@@ -10023,7 +10021,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>61</v>
       </c>
@@ -10040,7 +10038,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>62</v>
       </c>
@@ -10057,7 +10055,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>62</v>
       </c>
@@ -10074,7 +10072,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>72</v>
       </c>
@@ -10091,7 +10089,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>72</v>
       </c>
@@ -10108,7 +10106,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>73</v>
       </c>
@@ -10125,7 +10123,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>73</v>
       </c>
@@ -10142,7 +10140,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>74</v>
       </c>
@@ -10159,7 +10157,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>75</v>
       </c>
@@ -10179,7 +10177,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>76</v>
       </c>
@@ -10193,7 +10191,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>76</v>
       </c>
@@ -10211,7 +10209,7 @@
       </c>
       <c r="F495" s="18"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>77</v>
       </c>
@@ -10228,7 +10226,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>88</v>
       </c>
@@ -10245,7 +10243,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>58</v>
       </c>
@@ -10262,7 +10260,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>59</v>
       </c>
@@ -10279,7 +10277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>60</v>
       </c>
@@ -10293,7 +10291,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>60</v>
       </c>
@@ -10311,7 +10309,7 @@
       </c>
       <c r="F501" s="18"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>188</v>
       </c>
@@ -10328,7 +10326,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>188</v>
       </c>
@@ -10345,7 +10343,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>188</v>
       </c>
@@ -10362,7 +10360,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>188</v>
       </c>
@@ -10379,7 +10377,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>188</v>
       </c>
@@ -10396,7 +10394,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>188</v>
       </c>
@@ -10413,7 +10411,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>188</v>
       </c>
@@ -10430,7 +10428,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>28</v>
       </c>
@@ -10447,7 +10445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>61</v>
       </c>
@@ -10464,7 +10462,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>61</v>
       </c>
@@ -10481,7 +10479,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>62</v>
       </c>
@@ -10498,7 +10496,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>62</v>
       </c>
@@ -10515,7 +10513,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>72</v>
       </c>
@@ -10532,7 +10530,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>72</v>
       </c>
@@ -10549,7 +10547,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>73</v>
       </c>
@@ -10566,7 +10564,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>73</v>
       </c>
@@ -10583,7 +10581,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>74</v>
       </c>
@@ -10597,7 +10595,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>74</v>
       </c>
@@ -10615,7 +10613,7 @@
       </c>
       <c r="F519" s="18"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>75</v>
       </c>
@@ -10635,7 +10633,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>76</v>
       </c>
@@ -10652,7 +10650,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>77</v>
       </c>
@@ -10669,7 +10667,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>88</v>
       </c>
@@ -10686,7 +10684,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>58</v>
       </c>
@@ -10703,7 +10701,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>59</v>
       </c>
@@ -10723,7 +10721,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>60</v>
       </c>
@@ -10740,7 +10738,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>60</v>
       </c>
@@ -10757,7 +10755,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>60</v>
       </c>
@@ -10774,7 +10772,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>60</v>
       </c>
@@ -10791,7 +10789,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>60</v>
       </c>
@@ -10808,7 +10806,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>60</v>
       </c>
@@ -10825,7 +10823,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>60</v>
       </c>
@@ -10842,7 +10840,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>32</v>
       </c>
@@ -10859,7 +10857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>61</v>
       </c>
@@ -10870,7 +10868,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>61</v>
       </c>
@@ -10887,7 +10885,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>62</v>
       </c>
@@ -10898,7 +10896,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>62</v>
       </c>
@@ -10915,7 +10913,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>62</v>
       </c>
@@ -10932,7 +10930,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>72</v>
       </c>
@@ -10943,7 +10941,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>72</v>
       </c>
@@ -10960,7 +10958,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>72</v>
       </c>
@@ -10977,7 +10975,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>73</v>
       </c>
@@ -10997,7 +10995,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>74</v>
       </c>
@@ -11014,7 +11012,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>75</v>
       </c>
@@ -11031,11 +11029,11 @@
         <v>480</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>58</v>
       </c>
-      <c r="B545" s="24">
+      <c r="B545" s="10">
         <v>5</v>
       </c>
       <c r="C545" s="20" t="s">
@@ -11048,7 +11046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>33</v>
       </c>
@@ -11065,7 +11063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>61</v>
       </c>
@@ -11082,7 +11080,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>61</v>
       </c>
@@ -11099,7 +11097,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>62</v>
       </c>
@@ -11116,7 +11114,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>62</v>
       </c>
@@ -11133,7 +11131,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>62</v>
       </c>
@@ -11150,7 +11148,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>72</v>
       </c>
@@ -11167,7 +11165,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>72</v>
       </c>
@@ -11184,7 +11182,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>73</v>
       </c>
@@ -11201,7 +11199,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>74</v>
       </c>
@@ -11218,7 +11216,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>75</v>
       </c>
@@ -11235,7 +11233,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>76</v>
       </c>
@@ -11252,7 +11250,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>77</v>
       </c>
@@ -11269,7 +11267,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>88</v>
       </c>
@@ -11286,11 +11284,11 @@
         <v>480</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>58</v>
       </c>
-      <c r="B560" s="24">
+      <c r="B560" s="10">
         <v>5</v>
       </c>
       <c r="C560" s="20" t="s">
@@ -11303,7 +11301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>34</v>
       </c>
@@ -11320,11 +11318,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>55</v>
       </c>
-      <c r="B562" s="24">
+      <c r="B562" s="10">
         <v>2</v>
       </c>
       <c r="C562" s="20" t="s">
@@ -11340,7 +11338,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>61</v>
       </c>
@@ -11357,7 +11355,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>62</v>
       </c>
@@ -11374,7 +11372,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>72</v>
       </c>
@@ -11391,7 +11389,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>73</v>
       </c>
@@ -11408,7 +11406,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>74</v>
       </c>
@@ -11425,7 +11423,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>75</v>
       </c>
@@ -11442,7 +11440,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>76</v>
       </c>
@@ -11459,7 +11457,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>77</v>
       </c>
@@ -11476,7 +11474,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>88</v>
       </c>
@@ -11493,7 +11491,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>88</v>
       </c>
@@ -11510,7 +11508,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>95</v>
       </c>
@@ -11527,7 +11525,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>95</v>
       </c>
@@ -11544,7 +11542,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>96</v>
       </c>
@@ -11561,7 +11559,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>97</v>
       </c>
@@ -11578,7 +11576,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>58</v>
       </c>
@@ -11595,7 +11593,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>58</v>
       </c>
@@ -11612,7 +11610,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>58</v>
       </c>
@@ -11629,7 +11627,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>58</v>
       </c>
@@ -11646,7 +11644,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>58</v>
       </c>
@@ -11663,7 +11661,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>58</v>
       </c>
@@ -11680,7 +11678,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>58</v>
       </c>
@@ -11697,7 +11695,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>58</v>
       </c>
@@ -11714,7 +11712,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>58</v>
       </c>
@@ -11731,7 +11729,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>59</v>
       </c>
@@ -11748,7 +11746,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>59</v>
       </c>
@@ -11765,7 +11763,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>59</v>
       </c>
@@ -11782,7 +11780,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>59</v>
       </c>
@@ -11799,7 +11797,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>59</v>
       </c>
@@ -11816,7 +11814,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>59</v>
       </c>
@@ -11833,7 +11831,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>59</v>
       </c>
@@ -11850,7 +11848,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>59</v>
       </c>
@@ -11867,7 +11865,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>41</v>
       </c>
@@ -11884,7 +11882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>61</v>
       </c>
@@ -11901,7 +11899,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>62</v>
       </c>
@@ -11918,7 +11916,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>72</v>
       </c>
@@ -11935,7 +11933,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>73</v>
       </c>
@@ -11952,7 +11950,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>74</v>
       </c>
@@ -11969,7 +11967,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>75</v>
       </c>
@@ -11986,7 +11984,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>76</v>
       </c>
@@ -12003,7 +12001,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>77</v>
       </c>
@@ -12020,7 +12018,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>88</v>
       </c>
@@ -12037,7 +12035,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>88</v>
       </c>
@@ -12054,7 +12052,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>95</v>
       </c>
@@ -12071,7 +12069,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>95</v>
       </c>
@@ -12088,7 +12086,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>96</v>
       </c>
@@ -12105,7 +12103,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>58</v>
       </c>
@@ -12122,7 +12120,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>59</v>
       </c>
@@ -12139,7 +12137,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>59</v>
       </c>
@@ -12156,7 +12154,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>59</v>
       </c>
@@ -12173,7 +12171,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>59</v>
       </c>
@@ -12190,7 +12188,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>59</v>
       </c>
@@ -12207,7 +12205,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>59</v>
       </c>
@@ -12224,7 +12222,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>59</v>
       </c>
@@ -12241,7 +12239,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>59</v>
       </c>
@@ -12258,7 +12256,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>59</v>
       </c>
@@ -12275,7 +12273,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>59</v>
       </c>
@@ -12292,7 +12290,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>59</v>
       </c>
@@ -12309,7 +12307,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>59</v>
       </c>
@@ -12326,7 +12324,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>59</v>
       </c>
@@ -12343,7 +12341,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>59</v>
       </c>
@@ -12360,7 +12358,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>59</v>
       </c>
@@ -12377,7 +12375,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>59</v>
       </c>
@@ -12394,7 +12392,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>59</v>
       </c>
@@ -12411,7 +12409,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>59</v>
       </c>
@@ -12428,7 +12426,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>59</v>
       </c>
@@ -12445,7 +12443,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>59</v>
       </c>
@@ -12462,7 +12460,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>59</v>
       </c>
@@ -12479,7 +12477,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>192</v>
       </c>
@@ -12496,7 +12494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>61</v>
       </c>
@@ -12513,7 +12511,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>62</v>
       </c>
@@ -12530,7 +12528,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>72</v>
       </c>
@@ -12547,7 +12545,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>73</v>
       </c>
@@ -12564,7 +12562,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>74</v>
       </c>
@@ -12581,7 +12579,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>75</v>
       </c>
@@ -12598,7 +12596,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>76</v>
       </c>
@@ -12615,7 +12613,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>58</v>
       </c>
@@ -12635,7 +12633,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>42</v>
       </c>
@@ -12652,7 +12650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>61</v>
       </c>
@@ -12669,7 +12667,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>62</v>
       </c>
@@ -12686,7 +12684,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>72</v>
       </c>
@@ -12703,7 +12701,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>73</v>
       </c>
@@ -12720,7 +12718,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>74</v>
       </c>
@@ -12736,11 +12734,11 @@
       <c r="E644" s="20">
         <v>1</v>
       </c>
-      <c r="F644" s="25" t="s">
+      <c r="F644" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>75</v>
       </c>
@@ -12757,7 +12755,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>76</v>
       </c>
@@ -12774,7 +12772,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>58</v>
       </c>
@@ -12791,7 +12789,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>59</v>
       </c>
@@ -12808,7 +12806,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>59</v>
       </c>
@@ -12825,7 +12823,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>60</v>
       </c>
@@ -12842,7 +12840,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>60</v>
       </c>
@@ -12859,7 +12857,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>43</v>
       </c>
@@ -12876,7 +12874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>61</v>
       </c>
@@ -12893,7 +12891,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>62</v>
       </c>
@@ -12910,7 +12908,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>72</v>
       </c>
@@ -12924,7 +12922,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>73</v>
       </c>
@@ -12941,7 +12939,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>73</v>
       </c>
@@ -12949,84 +12947,84 @@
         <v>2</v>
       </c>
       <c r="C657" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D657">
+        <v>100</v>
+      </c>
+      <c r="E657">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>73</v>
+      </c>
+      <c r="B658" s="10">
+        <v>2</v>
+      </c>
+      <c r="C658" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D657">
+      <c r="D658">
         <v>200</v>
       </c>
-      <c r="E657">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A658" t="s">
+      <c r="E658">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>73</v>
+      </c>
+      <c r="B659" s="10">
+        <v>2</v>
+      </c>
+      <c r="C659" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D659">
+        <v>200</v>
+      </c>
+      <c r="E659">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
         <v>74</v>
       </c>
-      <c r="B658" s="10">
-        <v>1</v>
-      </c>
-      <c r="C658" t="s">
+      <c r="B660" s="10">
+        <v>1</v>
+      </c>
+      <c r="C660" t="s">
         <v>212</v>
       </c>
-      <c r="D658">
+      <c r="D660">
         <v>460</v>
       </c>
-      <c r="E658">
+      <c r="E660">
         <v>460</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A659" t="s">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
         <v>75</v>
       </c>
-      <c r="B659" s="10">
-        <v>1</v>
-      </c>
-      <c r="C659" t="s">
+      <c r="B661" s="10">
+        <v>1</v>
+      </c>
+      <c r="C661" t="s">
         <v>130</v>
       </c>
-      <c r="D659">
+      <c r="D661">
         <v>480</v>
       </c>
-      <c r="E659">
+      <c r="E661">
         <v>480</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A660" t="s">
-        <v>58</v>
-      </c>
-      <c r="B660" s="10">
-        <v>4</v>
-      </c>
-      <c r="C660" t="s">
-        <v>173</v>
-      </c>
-      <c r="D660">
-        <v>300</v>
-      </c>
-      <c r="E660">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A661" t="s">
-        <v>58</v>
-      </c>
-      <c r="B661" s="10">
-        <v>4</v>
-      </c>
-      <c r="C661" t="s">
-        <v>185</v>
-      </c>
-      <c r="D661">
-        <v>300</v>
-      </c>
-      <c r="E661">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>58</v>
       </c>
@@ -13034,7 +13032,7 @@
         <v>4</v>
       </c>
       <c r="C662" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D662">
         <v>300</v>
@@ -13043,7 +13041,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>58</v>
       </c>
@@ -13051,7 +13049,7 @@
         <v>4</v>
       </c>
       <c r="C663" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D663">
         <v>300</v>
@@ -13060,7 +13058,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>58</v>
       </c>
@@ -13068,7 +13066,7 @@
         <v>4</v>
       </c>
       <c r="C664" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="D664">
         <v>300</v>
@@ -13077,7 +13075,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>58</v>
       </c>
@@ -13085,7 +13083,7 @@
         <v>4</v>
       </c>
       <c r="C665" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="D665">
         <v>300</v>
@@ -13094,7 +13092,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>58</v>
       </c>
@@ -13102,7 +13100,7 @@
         <v>4</v>
       </c>
       <c r="C666" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D666">
         <v>300</v>
@@ -13111,7 +13109,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>58</v>
       </c>
@@ -13119,7 +13117,7 @@
         <v>4</v>
       </c>
       <c r="C667" t="s">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="D667">
         <v>300</v>
@@ -13128,7 +13126,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>58</v>
       </c>
@@ -13136,7 +13134,7 @@
         <v>4</v>
       </c>
       <c r="C668" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="D668">
         <v>300</v>
@@ -13145,7 +13143,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>58</v>
       </c>
@@ -13153,7 +13151,7 @@
         <v>4</v>
       </c>
       <c r="C669" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D669">
         <v>300</v>
@@ -13162,41 +13160,41 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B670" s="10">
         <v>4</v>
       </c>
       <c r="C670" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D670">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E670">
         <v>1000</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B671" s="10">
         <v>4</v>
       </c>
       <c r="C671" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D671">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E671">
         <v>1000</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>59</v>
       </c>
@@ -13204,7 +13202,7 @@
         <v>4</v>
       </c>
       <c r="C672" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D672">
         <v>200</v>
@@ -13213,7 +13211,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>59</v>
       </c>
@@ -13221,7 +13219,7 @@
         <v>4</v>
       </c>
       <c r="C673" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D673">
         <v>200</v>
@@ -13230,7 +13228,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>59</v>
       </c>
@@ -13238,7 +13236,7 @@
         <v>4</v>
       </c>
       <c r="C674" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="D674">
         <v>200</v>
@@ -13247,7 +13245,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>59</v>
       </c>
@@ -13255,7 +13253,7 @@
         <v>4</v>
       </c>
       <c r="C675" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="D675">
         <v>200</v>
@@ -13264,7 +13262,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>59</v>
       </c>
@@ -13272,7 +13270,7 @@
         <v>4</v>
       </c>
       <c r="C676" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D676">
         <v>200</v>
@@ -13281,7 +13279,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>59</v>
       </c>
@@ -13289,7 +13287,7 @@
         <v>4</v>
       </c>
       <c r="C677" t="s">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="D677">
         <v>200</v>
@@ -13298,7 +13296,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>59</v>
       </c>
@@ -13306,7 +13304,7 @@
         <v>4</v>
       </c>
       <c r="C678" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="D678">
         <v>200</v>
@@ -13315,7 +13313,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>59</v>
       </c>
@@ -13323,7 +13321,7 @@
         <v>4</v>
       </c>
       <c r="C679" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D679">
         <v>200</v>
@@ -13332,41 +13330,41 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B680" s="10">
         <v>4</v>
       </c>
       <c r="C680" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D680">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E680">
         <v>1000</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B681" s="10">
         <v>4</v>
       </c>
       <c r="C681" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D681">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E681">
         <v>1000</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>60</v>
       </c>
@@ -13374,7 +13372,7 @@
         <v>4</v>
       </c>
       <c r="C682" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D682">
         <v>100</v>
@@ -13383,7 +13381,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>60</v>
       </c>
@@ -13391,7 +13389,7 @@
         <v>4</v>
       </c>
       <c r="C683" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D683">
         <v>100</v>
@@ -13400,7 +13398,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>60</v>
       </c>
@@ -13408,7 +13406,7 @@
         <v>4</v>
       </c>
       <c r="C684" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="D684">
         <v>100</v>
@@ -13417,7 +13415,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>60</v>
       </c>
@@ -13425,7 +13423,7 @@
         <v>4</v>
       </c>
       <c r="C685" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="D685">
         <v>100</v>
@@ -13434,7 +13432,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>60</v>
       </c>
@@ -13442,7 +13440,7 @@
         <v>4</v>
       </c>
       <c r="C686" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D686">
         <v>100</v>
@@ -13451,7 +13449,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>60</v>
       </c>
@@ -13459,7 +13457,7 @@
         <v>4</v>
       </c>
       <c r="C687" t="s">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="D687">
         <v>100</v>
@@ -13468,7 +13466,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>60</v>
       </c>
@@ -13476,7 +13474,7 @@
         <v>4</v>
       </c>
       <c r="C688" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="D688">
         <v>100</v>
@@ -13485,7 +13483,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>60</v>
       </c>
@@ -13493,7 +13491,7 @@
         <v>4</v>
       </c>
       <c r="C689" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D689">
         <v>100</v>
@@ -13502,60 +13500,60 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
+        <v>60</v>
+      </c>
+      <c r="B690" s="10">
+        <v>4</v>
+      </c>
+      <c r="C690" t="s">
+        <v>178</v>
+      </c>
+      <c r="D690">
+        <v>100</v>
+      </c>
+      <c r="E690">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>60</v>
+      </c>
+      <c r="B691" s="10">
+        <v>4</v>
+      </c>
+      <c r="C691" t="s">
+        <v>203</v>
+      </c>
+      <c r="D691">
+        <v>100</v>
+      </c>
+      <c r="E691">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
         <v>46</v>
       </c>
-      <c r="B690" s="15">
+      <c r="B692" s="15">
         <v>0</v>
       </c>
-      <c r="C690" t="s">
+      <c r="C692" t="s">
         <v>214</v>
       </c>
-      <c r="D690">
-        <v>2</v>
-      </c>
-      <c r="E690">
+      <c r="D692">
+        <v>2</v>
+      </c>
+      <c r="E692">
         <v>22</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A691" t="s">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
         <v>61</v>
-      </c>
-      <c r="B691" s="10">
-        <v>1</v>
-      </c>
-      <c r="C691" t="s">
-        <v>25</v>
-      </c>
-      <c r="D691">
-        <v>209</v>
-      </c>
-      <c r="E691">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A692" t="s">
-        <v>62</v>
-      </c>
-      <c r="B692" s="10">
-        <v>1</v>
-      </c>
-      <c r="C692" t="s">
-        <v>25</v>
-      </c>
-      <c r="D692">
-        <v>210</v>
-      </c>
-      <c r="E692">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A693" t="s">
-        <v>72</v>
       </c>
       <c r="B693" s="10">
         <v>1</v>
@@ -13564,15 +13562,15 @@
         <v>25</v>
       </c>
       <c r="D693">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E693">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B694" s="10">
         <v>1</v>
@@ -13581,100 +13579,100 @@
         <v>25</v>
       </c>
       <c r="D694">
+        <v>210</v>
+      </c>
+      <c r="E694">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>72</v>
+      </c>
+      <c r="B695" s="10">
+        <v>1</v>
+      </c>
+      <c r="C695" t="s">
+        <v>25</v>
+      </c>
+      <c r="D695">
+        <v>212</v>
+      </c>
+      <c r="E695">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>73</v>
+      </c>
+      <c r="B696" s="10">
+        <v>1</v>
+      </c>
+      <c r="C696" t="s">
+        <v>25</v>
+      </c>
+      <c r="D696">
         <v>223</v>
       </c>
-      <c r="E694">
+      <c r="E696">
         <v>223</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A695" t="s">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
         <v>74</v>
       </c>
-      <c r="B695" s="10">
-        <v>1</v>
-      </c>
-      <c r="C695" t="s">
+      <c r="B697" s="10">
+        <v>1</v>
+      </c>
+      <c r="C697" t="s">
         <v>108</v>
       </c>
-      <c r="D695">
+      <c r="D697">
         <v>210</v>
       </c>
-      <c r="E695">
+      <c r="E697">
         <v>210</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A696" t="s">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
         <v>75</v>
       </c>
-      <c r="B696" s="10">
-        <v>1</v>
-      </c>
-      <c r="C696" t="s">
+      <c r="B698" s="10">
+        <v>1</v>
+      </c>
+      <c r="C698" t="s">
         <v>108</v>
       </c>
-      <c r="D696">
+      <c r="D698">
         <v>211</v>
       </c>
-      <c r="E696">
+      <c r="E698">
         <v>211</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A697" t="s">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
         <v>76</v>
       </c>
-      <c r="B697" s="10">
-        <v>1</v>
-      </c>
-      <c r="C697" t="s">
+      <c r="B699" s="10">
+        <v>1</v>
+      </c>
+      <c r="C699" t="s">
         <v>16</v>
       </c>
-      <c r="D697">
+      <c r="D699">
         <v>208</v>
       </c>
-      <c r="E697">
+      <c r="E699">
         <v>208</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A698" t="s">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
         <v>77</v>
-      </c>
-      <c r="B698" s="10">
-        <v>1</v>
-      </c>
-      <c r="C698" t="s">
-        <v>20</v>
-      </c>
-      <c r="D698">
-        <v>210</v>
-      </c>
-      <c r="E698">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A699" t="s">
-        <v>88</v>
-      </c>
-      <c r="B699" s="10">
-        <v>1</v>
-      </c>
-      <c r="C699" t="s">
-        <v>20</v>
-      </c>
-      <c r="D699">
-        <v>202</v>
-      </c>
-      <c r="E699">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A700" t="s">
-        <v>95</v>
       </c>
       <c r="B700" s="10">
         <v>1</v>
@@ -13683,123 +13681,121 @@
         <v>20</v>
       </c>
       <c r="D700">
+        <v>210</v>
+      </c>
+      <c r="E700">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>88</v>
+      </c>
+      <c r="B701" s="10">
+        <v>1</v>
+      </c>
+      <c r="C701" t="s">
+        <v>20</v>
+      </c>
+      <c r="D701">
+        <v>202</v>
+      </c>
+      <c r="E701">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>95</v>
+      </c>
+      <c r="B702" s="10">
+        <v>1</v>
+      </c>
+      <c r="C702" t="s">
+        <v>20</v>
+      </c>
+      <c r="D702">
         <v>316</v>
       </c>
-      <c r="E700">
+      <c r="E702">
         <v>316</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A701" t="s">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
         <v>96</v>
       </c>
-      <c r="B701" s="10">
-        <v>1</v>
-      </c>
-      <c r="C701" t="s">
+      <c r="B703" s="10">
+        <v>1</v>
+      </c>
+      <c r="C703" t="s">
         <v>176</v>
       </c>
-      <c r="D701">
+      <c r="D703">
         <v>320</v>
       </c>
-      <c r="E701">
+      <c r="E703">
         <v>320</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A702" t="s">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
         <v>97</v>
       </c>
-      <c r="B702" s="10">
-        <v>1</v>
-      </c>
-      <c r="C702" t="s">
+      <c r="B704" s="10">
+        <v>1</v>
+      </c>
+      <c r="C704" t="s">
         <v>25</v>
       </c>
-      <c r="D702">
+      <c r="D704">
         <v>470</v>
       </c>
-      <c r="E702">
+      <c r="E704">
         <v>470</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A703" t="s">
-        <v>58</v>
-      </c>
-      <c r="B703" s="10">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>58</v>
+      </c>
+      <c r="B705" s="10">
         <v>6</v>
       </c>
-      <c r="C703" s="20" t="s">
+      <c r="C705" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D703" s="20">
-        <v>1</v>
-      </c>
-      <c r="E703" s="20">
-        <v>1</v>
-      </c>
-      <c r="F703" s="12" t="s">
+      <c r="D705" s="20">
+        <v>1</v>
+      </c>
+      <c r="E705" s="20">
+        <v>1</v>
+      </c>
+      <c r="F705" s="12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A704" t="s">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
         <v>45</v>
       </c>
-      <c r="B704" s="15">
+      <c r="B706" s="15">
         <v>0</v>
       </c>
-      <c r="C704" t="s">
+      <c r="C706" t="s">
         <v>217</v>
       </c>
-      <c r="D704">
-        <v>2</v>
-      </c>
-      <c r="E704">
+      <c r="D706">
+        <v>2</v>
+      </c>
+      <c r="E706">
         <v>23</v>
       </c>
-      <c r="F704"/>
-    </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A705" t="s">
+      <c r="F706"/>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
         <v>61</v>
-      </c>
-      <c r="B705" s="10">
-        <v>1</v>
-      </c>
-      <c r="C705" t="s">
-        <v>25</v>
-      </c>
-      <c r="D705" s="15">
-        <v>209</v>
-      </c>
-      <c r="E705" s="15">
-        <v>209</v>
-      </c>
-      <c r="F705"/>
-    </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A706" t="s">
-        <v>62</v>
-      </c>
-      <c r="B706" s="10">
-        <v>1</v>
-      </c>
-      <c r="C706" t="s">
-        <v>25</v>
-      </c>
-      <c r="D706" s="15">
-        <v>210</v>
-      </c>
-      <c r="E706" s="15">
-        <v>210</v>
-      </c>
-      <c r="F706"/>
-    </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A707" t="s">
-        <v>72</v>
       </c>
       <c r="B707" s="10">
         <v>1</v>
@@ -13808,16 +13804,16 @@
         <v>25</v>
       </c>
       <c r="D707" s="15">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E707" s="15">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F707"/>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B708" s="10">
         <v>1</v>
@@ -13826,117 +13822,119 @@
         <v>25</v>
       </c>
       <c r="D708" s="15">
+        <v>210</v>
+      </c>
+      <c r="E708" s="15">
+        <v>210</v>
+      </c>
+      <c r="F708"/>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>72</v>
+      </c>
+      <c r="B709" s="10">
+        <v>1</v>
+      </c>
+      <c r="C709" t="s">
+        <v>25</v>
+      </c>
+      <c r="D709" s="15">
+        <v>212</v>
+      </c>
+      <c r="E709" s="15">
+        <v>212</v>
+      </c>
+      <c r="F709"/>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>73</v>
+      </c>
+      <c r="B710" s="10">
+        <v>1</v>
+      </c>
+      <c r="C710" t="s">
+        <v>25</v>
+      </c>
+      <c r="D710" s="15">
         <v>223</v>
       </c>
-      <c r="E708" s="15">
+      <c r="E710" s="15">
         <v>223</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A709" t="s">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
         <v>74</v>
       </c>
-      <c r="B709" s="10">
-        <v>1</v>
-      </c>
-      <c r="C709" t="s">
+      <c r="B711" s="10">
+        <v>1</v>
+      </c>
+      <c r="C711" t="s">
         <v>108</v>
       </c>
-      <c r="D709" s="15">
+      <c r="D711" s="15">
         <v>210</v>
       </c>
-      <c r="E709" s="15">
+      <c r="E711" s="15">
         <v>210</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A710" t="s">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
         <v>75</v>
       </c>
-      <c r="B710" s="10">
-        <v>1</v>
-      </c>
-      <c r="C710" t="s">
+      <c r="B712" s="10">
+        <v>1</v>
+      </c>
+      <c r="C712" t="s">
         <v>108</v>
       </c>
-      <c r="D710" s="15">
+      <c r="D712" s="15">
         <v>211</v>
       </c>
-      <c r="E710" s="15">
+      <c r="E712" s="15">
         <v>211</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A711" t="s">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
         <v>76</v>
       </c>
-      <c r="B711" s="10">
-        <v>1</v>
-      </c>
-      <c r="C711" t="s">
+      <c r="B713" s="10">
+        <v>1</v>
+      </c>
+      <c r="C713" t="s">
         <v>16</v>
       </c>
-      <c r="D711" s="15">
+      <c r="D713" s="15">
         <v>208</v>
       </c>
-      <c r="E711" s="15">
+      <c r="E713" s="15">
         <v>208</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A712" t="s">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
         <v>76</v>
       </c>
-      <c r="B712" s="10">
-        <v>1</v>
-      </c>
-      <c r="C712" t="s">
+      <c r="B714" s="10">
+        <v>1</v>
+      </c>
+      <c r="C714" t="s">
         <v>25</v>
       </c>
-      <c r="D712" s="15">
+      <c r="D714" s="15">
         <v>208</v>
       </c>
-      <c r="E712" s="15">
+      <c r="E714" s="15">
         <v>208</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A713" t="s">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
         <v>77</v>
-      </c>
-      <c r="B713" s="10">
-        <v>1</v>
-      </c>
-      <c r="C713" t="s">
-        <v>20</v>
-      </c>
-      <c r="D713" s="15">
-        <v>201</v>
-      </c>
-      <c r="E713" s="15">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A714" t="s">
-        <v>88</v>
-      </c>
-      <c r="B714" s="10">
-        <v>1</v>
-      </c>
-      <c r="C714" t="s">
-        <v>20</v>
-      </c>
-      <c r="D714" s="15">
-        <v>202</v>
-      </c>
-      <c r="E714" s="15">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A715" t="s">
-        <v>95</v>
       </c>
       <c r="B715" s="10">
         <v>1</v>
@@ -13945,166 +13943,166 @@
         <v>20</v>
       </c>
       <c r="D715" s="15">
+        <v>201</v>
+      </c>
+      <c r="E715" s="15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>88</v>
+      </c>
+      <c r="B716" s="10">
+        <v>1</v>
+      </c>
+      <c r="C716" t="s">
+        <v>20</v>
+      </c>
+      <c r="D716" s="15">
+        <v>202</v>
+      </c>
+      <c r="E716" s="15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>95</v>
+      </c>
+      <c r="B717" s="10">
+        <v>1</v>
+      </c>
+      <c r="C717" t="s">
+        <v>20</v>
+      </c>
+      <c r="D717" s="15">
         <v>316</v>
       </c>
-      <c r="E715" s="15">
+      <c r="E717" s="15">
         <v>316</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A716" t="s">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
         <v>96</v>
       </c>
-      <c r="B716" s="10">
-        <v>1</v>
-      </c>
-      <c r="C716" t="s">
+      <c r="B718" s="10">
+        <v>1</v>
+      </c>
+      <c r="C718" t="s">
         <v>176</v>
       </c>
-      <c r="D716" s="15">
+      <c r="D718" s="15">
         <v>320</v>
       </c>
-      <c r="E716" s="15">
+      <c r="E718" s="15">
         <v>320</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A717" t="s">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
         <v>97</v>
       </c>
-      <c r="B717" s="10">
-        <v>1</v>
-      </c>
-      <c r="C717" t="s">
+      <c r="B719" s="10">
+        <v>1</v>
+      </c>
+      <c r="C719" t="s">
         <v>25</v>
       </c>
-      <c r="D717">
+      <c r="D719">
         <v>400</v>
       </c>
-      <c r="E717">
+      <c r="E719">
         <v>499</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A718" t="s">
-        <v>58</v>
-      </c>
-      <c r="B718" s="10">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>58</v>
+      </c>
+      <c r="B720" s="10">
         <v>6</v>
       </c>
-      <c r="C718" s="20" t="s">
+      <c r="C720" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D718" s="20">
-        <v>1</v>
-      </c>
-      <c r="E718" s="20">
-        <v>1</v>
-      </c>
-      <c r="F718" s="12" t="s">
+      <c r="D720" s="20">
+        <v>1</v>
+      </c>
+      <c r="E720" s="20">
+        <v>1</v>
+      </c>
+      <c r="F720" s="12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A719" t="s">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
         <v>44</v>
       </c>
-      <c r="B719" s="15">
+      <c r="B721" s="15">
         <v>0</v>
       </c>
-      <c r="C719" t="s">
+      <c r="C721" t="s">
         <v>216</v>
       </c>
-      <c r="D719">
-        <v>2</v>
-      </c>
-      <c r="E719">
+      <c r="D721">
+        <v>2</v>
+      </c>
+      <c r="E721">
         <v>25</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A720" t="s">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
         <v>61</v>
       </c>
-      <c r="B720" s="10">
-        <v>1</v>
-      </c>
-      <c r="C720" t="s">
+      <c r="B722" s="10">
+        <v>1</v>
+      </c>
+      <c r="C722" t="s">
         <v>108</v>
       </c>
-      <c r="D720">
+      <c r="D722">
         <v>120</v>
       </c>
-      <c r="E720">
+      <c r="E722">
         <v>120</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A721" t="s">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
         <v>62</v>
       </c>
-      <c r="B721" s="10">
-        <v>1</v>
-      </c>
-      <c r="C721" t="s">
+      <c r="B723" s="10">
+        <v>1</v>
+      </c>
+      <c r="C723" t="s">
         <v>108</v>
       </c>
-      <c r="D721">
+      <c r="D723">
         <v>121</v>
       </c>
-      <c r="E721">
+      <c r="E723">
         <v>121</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A722" t="s">
-        <v>72</v>
-      </c>
-      <c r="B722" s="17">
-        <v>1</v>
-      </c>
-      <c r="C722" s="18"/>
-      <c r="D722" s="19"/>
-      <c r="E722" s="19"/>
-      <c r="F722" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A723" t="s">
-        <v>72</v>
-      </c>
-      <c r="B723" s="10">
-        <v>1</v>
-      </c>
-      <c r="C723" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D723">
-        <v>141</v>
-      </c>
-      <c r="E723">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>72</v>
       </c>
-      <c r="B724" s="10">
-        <v>1</v>
-      </c>
-      <c r="C724" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D724">
-        <v>142</v>
-      </c>
-      <c r="E724">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B724" s="17">
+        <v>1</v>
+      </c>
+      <c r="C724" s="18"/>
+      <c r="D724" s="19"/>
+      <c r="E724" s="19"/>
+      <c r="F724" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>72</v>
       </c>
@@ -14115,13 +14113,13 @@
         <v>173</v>
       </c>
       <c r="D725">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E725">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>72</v>
       </c>
@@ -14132,106 +14130,106 @@
         <v>173</v>
       </c>
       <c r="D726">
+        <v>142</v>
+      </c>
+      <c r="E726">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>72</v>
+      </c>
+      <c r="B727" s="10">
+        <v>1</v>
+      </c>
+      <c r="C727" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D727">
+        <v>143</v>
+      </c>
+      <c r="E727">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>72</v>
+      </c>
+      <c r="B728" s="10">
+        <v>1</v>
+      </c>
+      <c r="C728" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D728">
         <v>144</v>
       </c>
-      <c r="E726">
+      <c r="E728">
         <v>144</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A727" t="s">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
         <v>73</v>
       </c>
-      <c r="B727" s="10">
-        <v>1</v>
-      </c>
-      <c r="C727" t="s">
+      <c r="B729" s="10">
+        <v>1</v>
+      </c>
+      <c r="C729" t="s">
         <v>178</v>
       </c>
-      <c r="D727">
+      <c r="D729">
         <v>101</v>
       </c>
-      <c r="E727">
+      <c r="E729">
         <v>101</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A728" t="s">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
         <v>74</v>
       </c>
-      <c r="B728" s="10">
-        <v>1</v>
-      </c>
-      <c r="C728" t="s">
+      <c r="B730" s="10">
+        <v>1</v>
+      </c>
+      <c r="C730" t="s">
         <v>218</v>
       </c>
-      <c r="D728">
+      <c r="D730">
         <v>224</v>
       </c>
-      <c r="E728">
+      <c r="E730">
         <v>224</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A729" t="s">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
         <v>75</v>
       </c>
-      <c r="B729" s="10">
-        <v>1</v>
-      </c>
-      <c r="C729" t="s">
+      <c r="B731" s="10">
+        <v>1</v>
+      </c>
+      <c r="C731" t="s">
         <v>219</v>
       </c>
-      <c r="D729">
+      <c r="D731">
         <v>223</v>
       </c>
-      <c r="E729">
+      <c r="E731">
         <v>223</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A730" t="s">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
         <v>76</v>
       </c>
-      <c r="B730" s="10">
-        <v>1</v>
-      </c>
-      <c r="C730" t="s">
+      <c r="B732" s="10">
+        <v>1</v>
+      </c>
+      <c r="C732" t="s">
         <v>175</v>
-      </c>
-      <c r="D730">
-        <v>278</v>
-      </c>
-      <c r="E730">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A731" t="s">
-        <v>76</v>
-      </c>
-      <c r="B731" s="10">
-        <v>1</v>
-      </c>
-      <c r="C731" t="s">
-        <v>175</v>
-      </c>
-      <c r="D731">
-        <v>245</v>
-      </c>
-      <c r="E731">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A732" t="s">
-        <v>77</v>
-      </c>
-      <c r="B732" s="10">
-        <v>1</v>
-      </c>
-      <c r="C732" t="s">
-        <v>186</v>
       </c>
       <c r="D732">
         <v>278</v>
@@ -14240,109 +14238,109 @@
         <v>278</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
+        <v>76</v>
+      </c>
+      <c r="B733" s="10">
+        <v>1</v>
+      </c>
+      <c r="C733" t="s">
+        <v>175</v>
+      </c>
+      <c r="D733">
+        <v>245</v>
+      </c>
+      <c r="E733">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
         <v>77</v>
       </c>
-      <c r="B733" s="10">
-        <v>1</v>
-      </c>
-      <c r="C733" t="s">
+      <c r="B734" s="10">
+        <v>1</v>
+      </c>
+      <c r="C734" t="s">
         <v>186</v>
       </c>
-      <c r="D733">
+      <c r="D734">
+        <v>278</v>
+      </c>
+      <c r="E734">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>77</v>
+      </c>
+      <c r="B735" s="10">
+        <v>1</v>
+      </c>
+      <c r="C735" t="s">
+        <v>186</v>
+      </c>
+      <c r="D735">
         <v>231</v>
       </c>
-      <c r="E733">
+      <c r="E735">
         <v>231</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A734" t="s">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
         <v>88</v>
       </c>
-      <c r="B734" s="10">
-        <v>1</v>
-      </c>
-      <c r="C734" t="s">
+      <c r="B736" s="10">
+        <v>1</v>
+      </c>
+      <c r="C736" t="s">
         <v>178</v>
       </c>
-      <c r="D734">
+      <c r="D736">
         <v>304</v>
       </c>
-      <c r="E734">
+      <c r="E736">
         <v>304</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A735" t="s">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
         <v>95</v>
       </c>
-      <c r="B735" s="10">
-        <v>1</v>
-      </c>
-      <c r="C735" t="s">
+      <c r="B737" s="10">
+        <v>1</v>
+      </c>
+      <c r="C737" t="s">
         <v>130</v>
       </c>
-      <c r="D735">
+      <c r="D737">
         <v>460</v>
       </c>
-      <c r="E735">
+      <c r="E737">
         <v>460</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A736" t="s">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
         <v>96</v>
       </c>
-      <c r="B736" s="10">
-        <v>1</v>
-      </c>
-      <c r="C736" t="s">
+      <c r="B738" s="10">
+        <v>1</v>
+      </c>
+      <c r="C738" t="s">
         <v>130</v>
       </c>
-      <c r="D736">
+      <c r="D738">
         <v>480</v>
       </c>
-      <c r="E736">
+      <c r="E738">
         <v>480</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A737" t="s">
-        <v>58</v>
-      </c>
-      <c r="B737" s="10">
-        <v>4</v>
-      </c>
-      <c r="C737" t="s">
-        <v>173</v>
-      </c>
-      <c r="D737">
-        <v>300</v>
-      </c>
-      <c r="E737">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A738" t="s">
-        <v>58</v>
-      </c>
-      <c r="B738" s="10">
-        <v>4</v>
-      </c>
-      <c r="C738" t="s">
-        <v>174</v>
-      </c>
-      <c r="D738">
-        <v>300</v>
-      </c>
-      <c r="E738">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>58</v>
       </c>
@@ -14350,7 +14348,7 @@
         <v>4</v>
       </c>
       <c r="C739" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D739">
         <v>300</v>
@@ -14359,7 +14357,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>58</v>
       </c>
@@ -14367,7 +14365,7 @@
         <v>4</v>
       </c>
       <c r="C740" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D740">
         <v>300</v>
@@ -14376,7 +14374,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>58</v>
       </c>
@@ -14384,7 +14382,7 @@
         <v>4</v>
       </c>
       <c r="C741" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D741">
         <v>300</v>
@@ -14393,7 +14391,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>58</v>
       </c>
@@ -14401,7 +14399,7 @@
         <v>4</v>
       </c>
       <c r="C742" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D742">
         <v>300</v>
@@ -14410,7 +14408,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>58</v>
       </c>
@@ -14418,7 +14416,7 @@
         <v>4</v>
       </c>
       <c r="C743" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="D743">
         <v>300</v>
@@ -14427,7 +14425,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>58</v>
       </c>
@@ -14435,7 +14433,7 @@
         <v>4</v>
       </c>
       <c r="C744" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="D744">
         <v>300</v>
@@ -14444,7 +14442,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>58</v>
       </c>
@@ -14452,7 +14450,7 @@
         <v>4</v>
       </c>
       <c r="C745" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="D745">
         <v>300</v>
@@ -14461,41 +14459,41 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B746" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C746" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="D746">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E746">
         <v>1000</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B747" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C747" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="D747">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E747">
         <v>1000</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>59</v>
       </c>
@@ -14503,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="C748" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D748">
         <v>200</v>
@@ -14512,7 +14510,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>59</v>
       </c>
@@ -14520,7 +14518,7 @@
         <v>2</v>
       </c>
       <c r="C749" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D749">
         <v>200</v>
@@ -14529,7 +14527,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>59</v>
       </c>
@@ -14537,7 +14535,7 @@
         <v>2</v>
       </c>
       <c r="C750" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="D750">
         <v>200</v>
@@ -14546,7 +14544,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>59</v>
       </c>
@@ -14554,7 +14552,7 @@
         <v>2</v>
       </c>
       <c r="C751" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D751">
         <v>200</v>
@@ -14563,7 +14561,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>59</v>
       </c>
@@ -14571,7 +14569,7 @@
         <v>2</v>
       </c>
       <c r="C752" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="D752">
         <v>200</v>
@@ -14580,9 +14578,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>59</v>
+      </c>
+      <c r="B753" s="10">
+        <v>2</v>
+      </c>
+      <c r="C753" t="s">
+        <v>178</v>
+      </c>
+      <c r="D753">
+        <v>200</v>
+      </c>
+      <c r="E753">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>59</v>
+      </c>
+      <c r="B754" s="10">
+        <v>2</v>
+      </c>
+      <c r="C754" t="s">
+        <v>203</v>
+      </c>
+      <c r="D754">
+        <v>200</v>
+      </c>
+      <c r="E754">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="A1 A3:A35 A37:A69 A71:A109 A111:A137 A139:A164 A166:A177 A179:A190 A192:A206 A208:A232 A234:A259 A261:A333 A335:A406 A408:A457 A459:A482 A484:A508 A510:A532 A562:A593 A595:A629 A631:A638 A653:A689 A691:A703 A705:A718 A720:A1048576 A534:A545 A547:A560 A640:A651">
+  <conditionalFormatting sqref="A1 A3:A35 A37:A69 A71:A109 A111:A137 A139:A164 A166:A177 A179:A190 A192:A206 A208:A232 A234:A259 A335:A406 A408:A457 A459:A482 A484:A508 A510:A532 A534:A545 A547:A560 A562:A593 A595:A629 A631:A638 A640:A651 A693:A705 A707:A720 A722:A1048576 A261:A333 A653:A691">
     <cfRule type="containsText" dxfId="5" priority="22" operator="containsText" text="elc ">
       <formula>NOT(ISERROR(SEARCH("elc ",A1)))</formula>
     </cfRule>
@@ -14606,15 +14638,15 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14638,7 +14670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
@@ -14655,7 +14687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
@@ -14672,7 +14704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
@@ -14689,7 +14721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>47</v>
       </c>
@@ -14706,7 +14738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -14723,7 +14755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -14743,7 +14775,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -14763,7 +14795,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -14783,7 +14815,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -14803,7 +14835,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -14820,7 +14852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -14837,7 +14869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -14854,7 +14886,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>192</v>
       </c>
@@ -14874,7 +14906,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -14891,7 +14923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>42</v>
       </c>
@@ -14908,7 +14940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -14925,7 +14957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -14942,7 +14974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -14959,7 +14991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -14976,7 +15008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -14993,7 +15025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -15013,7 +15045,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>50</v>
       </c>
@@ -15030,7 +15062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>51</v>
       </c>
@@ -15047,7 +15079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -15067,7 +15099,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -15087,7 +15119,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -15107,12 +15139,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>66</v>
       </c>
@@ -15129,17 +15161,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>36</v>
       </c>
@@ -15147,7 +15179,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>37</v>
       </c>
@@ -15178,18 +15210,18 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="14.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15203,7 +15235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -15220,7 +15252,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -15234,7 +15266,7 @@
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -15246,7 +15278,7 @@
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -15258,7 +15290,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -15272,7 +15304,7 @@
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -15284,7 +15316,7 @@
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -15296,7 +15328,7 @@
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -15310,7 +15342,7 @@
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -15322,7 +15354,7 @@
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -15334,7 +15366,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -15346,7 +15378,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
@@ -15360,7 +15392,7 @@
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -15392,12 +15424,12 @@
       <selection activeCell="C15" sqref="C15:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15411,7 +15443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -15425,7 +15457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -15442,7 +15474,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -15459,7 +15491,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -15476,7 +15508,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -15493,7 +15525,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -15528,7 +15560,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -15554,7 +15586,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -15634,7 +15666,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -15645,7 +15677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -15662,7 +15694,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -15692,13 +15724,13 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -15709,7 +15741,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>166</v>
       </c>
@@ -15720,7 +15752,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -15731,7 +15763,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>151</v>
       </c>
@@ -15742,7 +15774,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>162</v>
       </c>
@@ -15753,7 +15785,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>160</v>
       </c>
@@ -15764,7 +15796,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>137</v>
       </c>
@@ -15775,7 +15807,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>132</v>
       </c>
@@ -15786,7 +15818,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>138</v>
       </c>
@@ -15797,7 +15829,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>145</v>
       </c>
@@ -15808,7 +15840,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>140</v>
       </c>
@@ -15819,7 +15851,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>147</v>
       </c>
@@ -15830,7 +15862,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>152</v>
       </c>
@@ -15841,7 +15873,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>158</v>
       </c>
@@ -15852,7 +15884,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>155</v>
       </c>

--- a/prerequisites/trial prereq/execution_files/majors list.xlsx
+++ b/prerequisites/trial prereq/execution_files/majors list.xlsx
@@ -1764,8 +1764,8 @@
   <dimension ref="A1:G754"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A635" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F659" sqref="F659"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H186" sqref="H186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14614,7 +14614,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="A1 A3:A35 A37:A69 A71:A109 A111:A137 A139:A164 A166:A177 A179:A190 A192:A206 A208:A232 A234:A259 A335:A406 A408:A457 A459:A482 A484:A508 A510:A532 A534:A545 A547:A560 A562:A593 A595:A629 A631:A638 A640:A651 A693:A705 A707:A720 A722:A1048576 A261:A333 A653:A691">
+  <conditionalFormatting sqref="A1 A3:A35 A37:A69 A71:A109 A111:A137 A139:A164 A166:A177 A179:A190 A192:A206 A208:A232 A234:A259 A261:A333 A335:A406 A408:A457 A459:A482 A484:A508 A510:A532 A534:A545 A547:A560 A562:A593 A595:A629 A631:A638 A640:A651 A653:A691 A693:A705 A707:A720 A722:A1048576">
     <cfRule type="containsText" dxfId="5" priority="22" operator="containsText" text="elc ">
       <formula>NOT(ISERROR(SEARCH("elc ",A1)))</formula>
     </cfRule>

--- a/prerequisites/trial prereq/execution_files/majors list.xlsx
+++ b/prerequisites/trial prereq/execution_files/majors list.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2695" documentId="13_ncr:1_{C33D7932-E03C-452A-ACDA-0A7400E5C19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D2C2EAD-3C89-4942-833D-90D9E0EF6FCE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{39B82AA1-F665-4363-970D-8821589D72FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{39B82AA1-F665-4363-970D-8821589D72FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Majors" sheetId="6" r:id="rId1"/>
@@ -1831,7 +1831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701C36C7-83AA-41D8-8B1C-C0D8358D86FD}">
   <dimension ref="A1:G822"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A191" sqref="A1:A1048576"/>
     </sheetView>
@@ -15805,8 +15805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AC27B8-1BF8-42B7-96D3-0055CAD9AC91}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
